--- a/inputs/VolumesExcel/it_IT/Paesi Bassi VOLUME 13_it_IT.xlsx
+++ b/inputs/VolumesExcel/it_IT/Paesi Bassi VOLUME 13_it_IT.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J609"/>
+  <dimension ref="A1:K609"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
@@ -510,12 +510,17 @@
           <t>ms288_title</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ms288_title</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Correspondance avec le Ministre des Affaires Étrangères (Corrispondenza con il Ministro degli Affari Esteri)</t>
         </is>
       </c>
-      <c r="C1" t="n">
+      <c r="D1" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -525,12 +530,17 @@
           <t>ms288_15_title</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ms288_title</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="inlineStr">
         <is>
           <t>Correspondance avec le Ministre des Affaires Étrangères (Corrispondenza con il Ministro degli Affari Esteri)</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -540,12 +550,17 @@
           <t>ms288_15_h_title</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ms288_title</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>Correspondance avec le Ministre des Affaires Étrangères (Corrispondenza con il Ministro degli Affari Esteri)</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -555,7 +570,12 @@
           <t>ms288_15_h_1</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ms288_15_h_1</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>Correspondance avec le Ministre des Affaires Étrangères (Corrispondenza con il Ministro degli Affari Esteri)</t>
         </is>
@@ -567,7 +587,12 @@
           <t>ms288_15_h_2</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ms288_15_h_2</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -579,26 +604,31 @@
           <t>ms288_15_h_3</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ms288_15_h_3</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1845</v>
-      </c>
       <c r="D6" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>29</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -610,26 +640,31 @@
           <t>ms288_15_h_4</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ms288_15_h_4</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz e a $ArataL (nel verso)</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>1845</v>
-      </c>
       <c r="D7" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>29</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>$Sarraz; $ArataL</t>
         </is>
@@ -641,31 +676,36 @@
           <t>ms288_15_h_5</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ms288_15_h_5</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Lettera di $ArataL al $Liedkerke</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>1845</v>
-      </c>
       <c r="D8" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>25</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Civitavecchia</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -677,26 +717,31 @@
           <t>ms288_15_h_6</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ms288_15_h_6</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1844</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>10</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>26</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -708,26 +753,31 @@
           <t>ms288_15_h_7</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ms288_15_h_6</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>1844</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>10</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>26</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -739,26 +789,31 @@
           <t>ms288_15_h_8</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ms288_15_h_8</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>1844</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>6</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>11</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -770,7 +825,12 @@
           <t>ms288_15_h_9</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ms288_15_h_9</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -782,7 +842,12 @@
           <t>ms288_15_h_10</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ms288_15_h_9</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -794,7 +859,12 @@
           <t>ms288_15_h_11</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ms288_15_h_9</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -806,7 +876,12 @@
           <t>ms288_15_h_12</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ms288_15_h_9</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -818,7 +893,12 @@
           <t>ms288_15_h_13</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ms288_15_h_9</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -830,7 +910,12 @@
           <t>ms288_15_h_14</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ms288_15_h_9</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -842,26 +927,31 @@
           <t>ms288_15_h_15</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ms288_15_h_15</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>1845</v>
-      </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1845</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -873,26 +963,31 @@
           <t>ms288_15_h_16</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ms288_15_h_16</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr">
         <is>
           <t>Lettera al $Liedkerke</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>1845</v>
-      </c>
       <c r="D19" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E19" t="n">
         <v>2</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -904,31 +999,36 @@
           <t>ms288_15_h_17</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ms288_15_h_17</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Liedkerke</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>1845</v>
-      </c>
       <c r="D20" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E20" t="n">
         <v>3</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>4</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -940,7 +1040,12 @@
           <t>ms288_15_h_18</t>
         </is>
       </c>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ms288_15_h_18</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -952,31 +1057,36 @@
           <t>ms288_15_h_19</t>
         </is>
       </c>
-      <c r="B22" s="7" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ms288_15_h_19</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Liedkerke</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>1845</v>
-      </c>
       <c r="D22" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E22" t="n">
         <v>10</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>25</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -988,7 +1098,12 @@
           <t>ms288_15_h_20</t>
         </is>
       </c>
-      <c r="B23" s="7" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ms288_15_h_20</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1000,26 +1115,31 @@
           <t>ms288_15_h_21</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ms288_15_h_21</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>1845</v>
-      </c>
       <c r="D24" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E24" t="n">
         <v>3</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>25</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1031,26 +1151,31 @@
           <t>ms288_15_h_22</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ms288_15_h_22</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>1845</v>
-      </c>
       <c r="D25" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E25" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>8</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1062,12 +1187,17 @@
           <t>ms288_15_h_23</t>
         </is>
       </c>
-      <c r="B26" s="7" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ms288_15_h_23</t>
+        </is>
+      </c>
+      <c r="C26" s="7" t="inlineStr">
         <is>
           <t>Nota di pagamento del $Magrini</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>$Magrini</t>
         </is>
@@ -1079,31 +1209,36 @@
           <t>ms288_15_h_24</t>
         </is>
       </c>
-      <c r="B27" s="7" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ms288_15_h_24</t>
+        </is>
+      </c>
+      <c r="C27" s="7" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Liedkerke</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>1845</v>
-      </c>
       <c r="D27" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E27" t="n">
         <v>4</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>21</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -1115,7 +1250,12 @@
           <t>ms288_15_h_25</t>
         </is>
       </c>
-      <c r="B28" s="7" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ms288_15_h_25</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1127,7 +1267,12 @@
           <t>ms288_15_h_26</t>
         </is>
       </c>
-      <c r="B29" s="7" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ms288_15_h_25</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1139,7 +1284,12 @@
           <t>ms288_15_h_27</t>
         </is>
       </c>
-      <c r="B30" s="7" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ms288_15_h_25</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1151,7 +1301,12 @@
           <t>ms288_15_h_28</t>
         </is>
       </c>
-      <c r="B31" s="7" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ms288_15_h_25</t>
+        </is>
+      </c>
+      <c r="C31" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1163,26 +1318,31 @@
           <t>ms288_15_h_29</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ms288_15_h_29</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>1845</v>
-      </c>
       <c r="D32" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E32" t="n">
         <v>4</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>16</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1194,26 +1354,31 @@
           <t>ms288_15_h_30</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ms288_15_h_29</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>1845</v>
-      </c>
       <c r="D33" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E33" t="n">
         <v>4</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>16</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1225,7 +1390,12 @@
           <t>ms288_15_h_31</t>
         </is>
       </c>
-      <c r="B34" s="7" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ms288_15_h_31</t>
+        </is>
+      </c>
+      <c r="C34" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1237,26 +1407,31 @@
           <t>ms288_15_h_32</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ms288_15_h_32</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>1845</v>
-      </c>
       <c r="D35" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E35" t="n">
         <v>4</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>17</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1268,26 +1443,31 @@
           <t>ms288_15_h_33</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ms288_15_h_32</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>1845</v>
-      </c>
       <c r="D36" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E36" t="n">
         <v>4</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>17</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1299,26 +1479,31 @@
           <t>ms288_15_h_34</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ms288_15_h_32</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>1845</v>
-      </c>
       <c r="D37" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E37" t="n">
         <v>4</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>17</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1330,31 +1515,36 @@
           <t>ms288_15_h_35</t>
         </is>
       </c>
-      <c r="B38" s="7" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ms288_15_h_35</t>
+        </is>
+      </c>
+      <c r="C38" s="7" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Liedkerke</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>1845</v>
-      </c>
       <c r="D38" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E38" t="n">
         <v>6</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>23</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -1366,26 +1556,31 @@
           <t>ms288_15_h_36</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ms288_15_h_36</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>1844</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>4</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>12</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1397,26 +1592,31 @@
           <t>ms288_15_h_37</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ms288_15_h_36</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>1844</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>4</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>12</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1428,26 +1628,31 @@
           <t>ms288_15_h_38</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ms288_15_h_38</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>1844</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>5</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>13</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1459,26 +1664,31 @@
           <t>ms288_15_h_39</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ms288_15_h_38</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>1844</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>5</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>13</v>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1490,26 +1700,31 @@
           <t>ms288_15_h_40</t>
         </is>
       </c>
-      <c r="B43" s="7" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ms288_15_h_40</t>
+        </is>
+      </c>
+      <c r="C43" s="7" t="inlineStr">
         <is>
           <t>Lettera al $SchimmelpenninckOye</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>1843</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>10</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>16</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>$SchimmelpenninckOye</t>
         </is>
@@ -1521,26 +1736,31 @@
           <t>ms288_15_h_41</t>
         </is>
       </c>
-      <c r="B44" s="7" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ms288_15_h_40</t>
+        </is>
+      </c>
+      <c r="C44" s="7" t="inlineStr">
         <is>
           <t>Lettera al $SchimmelpenninckOye</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>1843</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>10</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>16</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>$SchimmelpenninckOye</t>
         </is>
@@ -1552,26 +1772,31 @@
           <t>ms288_15_h_42</t>
         </is>
       </c>
-      <c r="B45" s="7" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ms288_15_h_42</t>
+        </is>
+      </c>
+      <c r="C45" s="7" t="inlineStr">
         <is>
           <t>Lettera al $HuyssenJW</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>1843</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>4</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>23</v>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>$HuyssenJW</t>
         </is>
@@ -1583,26 +1808,31 @@
           <t>ms288_15_h_43</t>
         </is>
       </c>
-      <c r="B46" s="7" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ms288_15_h_42</t>
+        </is>
+      </c>
+      <c r="C46" s="7" t="inlineStr">
         <is>
           <t>Lettera al $HuyssenJW</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>1843</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>4</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>23</v>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>$HuyssenJW</t>
         </is>
@@ -1614,26 +1844,31 @@
           <t>ms288_15_h_44</t>
         </is>
       </c>
-      <c r="B47" s="7" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ms288_15_h_44</t>
+        </is>
+      </c>
+      <c r="C47" s="7" t="inlineStr">
         <is>
           <t>Lettera al $Kruseman</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>1843</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>6</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>13</v>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>$Kruseman</t>
         </is>
@@ -1645,25 +1880,30 @@
           <t>ms288_15_h_45</t>
         </is>
       </c>
-      <c r="B48" s="7" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ms288_15_h_45</t>
+        </is>
+      </c>
+      <c r="C48" s="7" t="inlineStr">
         <is>
           <t>Lettera del $Kruseman al $Liedkerke</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>1843</v>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>$Kruseman</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -1675,17 +1915,22 @@
           <t>ms288_15_h_46</t>
         </is>
       </c>
-      <c r="B49" s="7" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ms288_15_h_46</t>
+        </is>
+      </c>
+      <c r="C49" s="7" t="inlineStr">
         <is>
           <t>Lettera del $Kruseman al $Liedkerke</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>$Kruseman</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -1697,7 +1942,12 @@
           <t>ms288_15_h_47</t>
         </is>
       </c>
-      <c r="B50" s="7" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ms288_15_h_47</t>
+        </is>
+      </c>
+      <c r="C50" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1709,31 +1959,36 @@
           <t>ms288_15_h_48</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ms288_15_h_48</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Liedkerke a $Koelman</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>1843</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>4</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>15</v>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>$Koelman</t>
         </is>
@@ -1745,31 +2000,36 @@
           <t>ms288_15_h_49</t>
         </is>
       </c>
-      <c r="B52" s="7" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ms288_15_h_49</t>
+        </is>
+      </c>
+      <c r="C52" s="7" t="inlineStr">
         <is>
           <t>Lettera di $Koningh al $Liedkerke</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>1843</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>21</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>$Koningh</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -1781,31 +2041,36 @@
           <t>ms288_15_h_50</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ms288_15_h_50</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>Lettera di $Koelman al $Liedkerke</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>1843</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>3</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>31</v>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>$Koelman</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -1817,12 +2082,17 @@
           <t>ms288_15_h_51</t>
         </is>
       </c>
-      <c r="B54" s="7" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ms288_15_h_51</t>
+        </is>
+      </c>
+      <c r="C54" s="7" t="inlineStr">
         <is>
           <t>Trascrizione di un bando di concorso per l'Accademia di Belle Arti di Roma</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>1843</v>
       </c>
     </row>
@@ -1832,7 +2102,12 @@
           <t>ms288_15_h_52</t>
         </is>
       </c>
-      <c r="B55" s="7" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ms288_15_h_52</t>
+        </is>
+      </c>
+      <c r="C55" s="7" t="inlineStr">
         <is>
           <t>Trascrizione di un bando di concorso per l'Accademia di Belle Arti di Roma</t>
         </is>
@@ -1844,31 +2119,36 @@
           <t>ms288_15_h_53</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ms288_15_h_53</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Lettere del $Liedkerke al $HuyssenJW e a $Koelman</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>1842</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>11</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>18</v>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>$Koelman; $HuyssenJW</t>
         </is>
@@ -1880,31 +2160,36 @@
           <t>ms288_15_h_54</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ms288_15_h_54</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Lettere del $Liedkerke a $Koelman</t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>1842</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>11</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>14</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>$Koelman</t>
         </is>
@@ -1916,31 +2201,36 @@
           <t>ms288_15_h_55</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ms288_15_h_55</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
         <is>
           <t>Lettera di $Koelman al $Liedkerke</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>1842</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>11</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>17</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>$Koelman</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -1952,31 +2242,36 @@
           <t>ms288_15_h_56</t>
         </is>
       </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ms288_15_h_56</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
         <is>
           <t>Lettere del $HuyssenJW al $Liedkerke</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>1842</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>10</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>29</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>$HuyssenJW</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -1988,31 +2283,36 @@
           <t>ms288_15_h_57</t>
         </is>
       </c>
-      <c r="B60" s="5" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ms288_15_h_57</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
         <is>
           <t>Lettera di $Vos e di $Vries a $Bilt</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>1842</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>10</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>14</v>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Amsterdam</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>$Vries; $Vos</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>$Bilt</t>
         </is>
@@ -2024,7 +2324,12 @@
           <t>ms288_15_h_58</t>
         </is>
       </c>
-      <c r="B61" s="7" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ms288_15_h_58</t>
+        </is>
+      </c>
+      <c r="C61" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2036,7 +2341,12 @@
           <t>ms288_15_h_59</t>
         </is>
       </c>
-      <c r="B62" s="7" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ms288_15_h_58</t>
+        </is>
+      </c>
+      <c r="C62" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2048,7 +2358,12 @@
           <t>ms288_15_h_60</t>
         </is>
       </c>
-      <c r="B63" s="7" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ms288_15_h_58</t>
+        </is>
+      </c>
+      <c r="C63" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2060,7 +2375,12 @@
           <t>ms288_15_h_61</t>
         </is>
       </c>
-      <c r="B64" s="7" t="inlineStr">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ms288_15_h_58</t>
+        </is>
+      </c>
+      <c r="C64" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2072,7 +2392,12 @@
           <t>ms288_15_h_62</t>
         </is>
       </c>
-      <c r="B65" s="7" t="inlineStr">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ms288_15_h_58</t>
+        </is>
+      </c>
+      <c r="C65" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2084,7 +2409,12 @@
           <t>ms288_15_h_63</t>
         </is>
       </c>
-      <c r="B66" s="7" t="inlineStr">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ms288_15_h_58</t>
+        </is>
+      </c>
+      <c r="C66" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2096,7 +2426,12 @@
           <t>ms288_15_h_64</t>
         </is>
       </c>
-      <c r="B67" s="7" t="inlineStr">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ms288_15_h_58</t>
+        </is>
+      </c>
+      <c r="C67" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2108,7 +2443,12 @@
           <t>ms288_15_h_65</t>
         </is>
       </c>
-      <c r="B68" s="7" t="inlineStr">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ms288_15_h_58</t>
+        </is>
+      </c>
+      <c r="C68" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2120,7 +2460,12 @@
           <t>ms288_15_h_66</t>
         </is>
       </c>
-      <c r="B69" s="7" t="inlineStr">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ms288_15_h_58</t>
+        </is>
+      </c>
+      <c r="C69" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2132,7 +2477,12 @@
           <t>ms288_15_h_67</t>
         </is>
       </c>
-      <c r="B70" s="7" t="inlineStr">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ms288_15_h_58</t>
+        </is>
+      </c>
+      <c r="C70" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2144,26 +2494,31 @@
           <t>ms288_15_h_68</t>
         </is>
       </c>
-      <c r="B71" s="3" t="inlineStr">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ms288_15_h_68</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>1845</v>
-      </c>
       <c r="D71" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E71" t="n">
         <v>4</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>24</v>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2175,26 +2530,31 @@
           <t>ms288_15_h_69</t>
         </is>
       </c>
-      <c r="B72" s="3" t="inlineStr">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ms288_15_h_68</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>1845</v>
-      </c>
       <c r="D72" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E72" t="n">
         <v>4</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>24</v>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2206,31 +2566,36 @@
           <t>ms288_15_h_70</t>
         </is>
       </c>
-      <c r="B73" s="7" t="inlineStr">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ms288_15_h_70</t>
+        </is>
+      </c>
+      <c r="C73" s="7" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Liedkerke</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>1845</v>
-      </c>
       <c r="D73" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E73" t="n">
         <v>6</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>27</v>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -2242,26 +2607,31 @@
           <t>ms288_15_h_71</t>
         </is>
       </c>
-      <c r="B74" s="7" t="inlineStr">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ms288_15_h_71</t>
+        </is>
+      </c>
+      <c r="C74" s="7" t="inlineStr">
         <is>
           <t>Lettera a $ArataL</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>1845</v>
-      </c>
       <c r="D74" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E74" t="n">
         <v>4</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>24</v>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
@@ -2273,31 +2643,36 @@
           <t>ms288_15_h_72</t>
         </is>
       </c>
-      <c r="B75" s="7" t="inlineStr">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ms288_15_h_72</t>
+        </is>
+      </c>
+      <c r="C75" s="7" t="inlineStr">
         <is>
           <t>Lettera di $ArataL al $Liedkerke</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>1845</v>
-      </c>
       <c r="D75" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E75" t="n">
         <v>4</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>20</v>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>Civitavecchia</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -2309,7 +2684,12 @@
           <t>ms288_15_h_73</t>
         </is>
       </c>
-      <c r="B76" s="7" t="inlineStr">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ms288_15_h_73</t>
+        </is>
+      </c>
+      <c r="C76" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2321,7 +2701,12 @@
           <t>ms288_15_h_74</t>
         </is>
       </c>
-      <c r="B77" s="7" t="inlineStr">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ms288_15_h_73</t>
+        </is>
+      </c>
+      <c r="C77" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2333,7 +2718,12 @@
           <t>ms288_15_h_75</t>
         </is>
       </c>
-      <c r="B78" s="7" t="inlineStr">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ms288_15_h_73</t>
+        </is>
+      </c>
+      <c r="C78" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2345,12 +2735,17 @@
           <t>ms288_15_h_76</t>
         </is>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ms288_15_h_73</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J79" s="8" t="n"/>
+      <c r="K79" s="8" t="n"/>
     </row>
     <row r="80" ht="16" customHeight="1" s="6">
       <c r="A80" t="inlineStr">
@@ -2358,31 +2753,36 @@
           <t>ms288_15_h_77</t>
         </is>
       </c>
-      <c r="B80" s="7" t="inlineStr">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ms288_15_h_77</t>
+        </is>
+      </c>
+      <c r="C80" s="7" t="inlineStr">
         <is>
           <t>Lettera del $Santucci al $Liedkerke (sostituto)</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v>1845</v>
-      </c>
       <c r="D80" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E80" t="n">
         <v>5</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>8</v>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>$Santucci</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -2394,26 +2794,31 @@
           <t>ms288_15_h_78</t>
         </is>
       </c>
-      <c r="B81" s="3" t="inlineStr">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ms288_15_h_78</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>1845</v>
-      </c>
       <c r="D81" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E81" t="n">
         <v>5</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>1</v>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2425,26 +2830,31 @@
           <t>ms288_15_h_79</t>
         </is>
       </c>
-      <c r="B82" s="7" t="inlineStr">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ms288_15_h_79</t>
+        </is>
+      </c>
+      <c r="C82" s="7" t="inlineStr">
         <is>
           <t>Lettera al $Lambruschini</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>1845</v>
-      </c>
       <c r="D82" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E82" t="n">
         <v>4</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>30</v>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>$Lambruschini</t>
         </is>
@@ -2456,31 +2866,36 @@
           <t>ms288_15_h_80</t>
         </is>
       </c>
-      <c r="B83" s="7" t="inlineStr">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ms288_15_h_80</t>
+        </is>
+      </c>
+      <c r="C83" s="7" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Liedkerke</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>1845</v>
-      </c>
       <c r="D83" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E83" t="n">
         <v>4</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>16</v>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -2492,12 +2907,17 @@
           <t>ms288_15_h_81</t>
         </is>
       </c>
-      <c r="B84" s="7" t="inlineStr">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ms288_15_h_81</t>
+        </is>
+      </c>
+      <c r="C84" s="7" t="inlineStr">
         <is>
           <t>Giornale a stampa “L'Indépendance Belge” (N. 168 del 13 dic. 1843)</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>1843</v>
       </c>
     </row>
@@ -2507,7 +2927,12 @@
           <t>ms288_15_h_82</t>
         </is>
       </c>
-      <c r="B85" s="7" t="inlineStr">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ms288_15_h_82</t>
+        </is>
+      </c>
+      <c r="C85" s="7" t="inlineStr">
         <is>
           <t>Foglio a stampa “Signalement d'un filou et faussaire, Allemand d'origine et se nommant Johann Carl Gorgas” (Amsterdam, 15 apr. 1845)</t>
         </is>
@@ -2519,7 +2944,12 @@
           <t>ms288_15_h_83</t>
         </is>
       </c>
-      <c r="B86" s="7" t="inlineStr">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ms288_15_h_82</t>
+        </is>
+      </c>
+      <c r="C86" s="7" t="inlineStr">
         <is>
           <t>Foglio a stampa “Signalement d'un filou et faussaire, Allemand d'origine et se nommant Johann Carl Gorgas” (Amsterdam, 15 apr. 1845)</t>
         </is>
@@ -2531,7 +2961,12 @@
           <t>ms288_15_h_84</t>
         </is>
       </c>
-      <c r="B87" s="7" t="inlineStr">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ms288_15_h_82</t>
+        </is>
+      </c>
+      <c r="C87" s="7" t="inlineStr">
         <is>
           <t>Foglio a stampa “Signalement d'un filou et faussaire, Allemand d'origine et se nommant Johann Carl Gorgas” (Amsterdam, 15 apr. 1845)</t>
         </is>
@@ -2543,7 +2978,12 @@
           <t>ms288_15_h_85</t>
         </is>
       </c>
-      <c r="B88" s="7" t="inlineStr">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ms288_15_h_82</t>
+        </is>
+      </c>
+      <c r="C88" s="7" t="inlineStr">
         <is>
           <t>Foglio a stampa “Signalement d'un filou et faussaire, Allemand d'origine et se nommant Johann Carl Gorgas” (Amsterdam, 15 apr. 1845)</t>
         </is>
@@ -2555,7 +2995,12 @@
           <t>ms288_15_h_86</t>
         </is>
       </c>
-      <c r="B89" s="7" t="inlineStr">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ms288_15_h_82</t>
+        </is>
+      </c>
+      <c r="C89" s="7" t="inlineStr">
         <is>
           <t>Foglio a stampa “Signalement d'un filou et faussaire, Allemand d'origine et se nommant Johann Carl Gorgas” (Amsterdam, 15 apr. 1845)</t>
         </is>
@@ -2567,7 +3012,12 @@
           <t>ms288_15_h_87</t>
         </is>
       </c>
-      <c r="B90" s="7" t="inlineStr">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ms288_15_h_82</t>
+        </is>
+      </c>
+      <c r="C90" s="7" t="inlineStr">
         <is>
           <t>Foglio a stampa “Signalement d'un filou et faussaire, Allemand d'origine et se nommant Johann Carl Gorgas” (Amsterdam, 15 apr. 1845)</t>
         </is>
@@ -2579,7 +3029,12 @@
           <t>ms288_15_h_88</t>
         </is>
       </c>
-      <c r="B91" s="7" t="inlineStr">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ms288_15_h_88</t>
+        </is>
+      </c>
+      <c r="C91" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2591,7 +3046,12 @@
           <t>ms288_15_h_89</t>
         </is>
       </c>
-      <c r="B92" s="7" t="inlineStr">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ms288_15_h_88</t>
+        </is>
+      </c>
+      <c r="C92" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2603,31 +3063,36 @@
           <t>ms288_15_h_90</t>
         </is>
       </c>
-      <c r="B93" s="7" t="inlineStr">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ms288_15_h_90</t>
+        </is>
+      </c>
+      <c r="C93" s="7" t="inlineStr">
         <is>
           <t>Lettera del $Santucci al $Liedkerke (sostituto)</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>1845</v>
-      </c>
       <c r="D93" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E93" t="n">
         <v>5</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>16</v>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>$Santucci</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -2639,31 +3104,36 @@
           <t>ms288_15_h_91</t>
         </is>
       </c>
-      <c r="B94" s="7" t="inlineStr">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ms288_15_h_91</t>
+        </is>
+      </c>
+      <c r="C94" s="7" t="inlineStr">
         <is>
           <t>Lettera del $Santucci al $Liedkerke (sostituto)</t>
         </is>
       </c>
-      <c r="C94" t="n">
-        <v>1845</v>
-      </c>
       <c r="D94" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E94" t="n">
         <v>5</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>9</v>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>$Santucci</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -2675,26 +3145,31 @@
           <t>ms288_15_h_92</t>
         </is>
       </c>
-      <c r="B95" s="7" t="inlineStr">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ms288_15_h_92</t>
+        </is>
+      </c>
+      <c r="C95" s="7" t="inlineStr">
         <is>
           <t>Lettera al $Lambruschini</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>1845</v>
-      </c>
       <c r="D95" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E95" t="n">
         <v>5</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>8</v>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>$Lambruschini</t>
         </is>
@@ -2706,17 +3181,22 @@
           <t>ms288_15_h_93</t>
         </is>
       </c>
-      <c r="B96" s="7" t="inlineStr">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ms288_15_h_93</t>
+        </is>
+      </c>
+      <c r="C96" s="7" t="inlineStr">
         <is>
           <t>Lettera del $Liedkerke al $Lambruschini</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>$Lambruschini</t>
         </is>
@@ -2728,26 +3208,31 @@
           <t>ms288_15_h_94</t>
         </is>
       </c>
-      <c r="B97" s="7" t="inlineStr">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ms288_15_h_94</t>
+        </is>
+      </c>
+      <c r="C97" s="7" t="inlineStr">
         <is>
           <t>Lettera al $Alewijn</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>1845</v>
-      </c>
       <c r="D97" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E97" t="n">
         <v>5</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>8</v>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>$Alewijn</t>
         </is>
@@ -2759,26 +3244,31 @@
           <t>ms288_15_h_95</t>
         </is>
       </c>
-      <c r="B98" s="7" t="inlineStr">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ms288_15_h_95</t>
+        </is>
+      </c>
+      <c r="C98" s="7" t="inlineStr">
         <is>
           <t>Lettera a $ArataL e a $CasarettoJ</t>
         </is>
       </c>
-      <c r="C98" t="n">
-        <v>1845</v>
-      </c>
       <c r="D98" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E98" t="n">
         <v>5</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>9</v>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>$CasarettoJ; $ArataL</t>
         </is>
@@ -2790,31 +3280,36 @@
           <t>ms288_15_h_96</t>
         </is>
       </c>
-      <c r="B99" s="7" t="inlineStr">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ms288_15_h_96</t>
+        </is>
+      </c>
+      <c r="C99" s="7" t="inlineStr">
         <is>
           <t>Lettera di $ArataL al $Liedkerke</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>1845</v>
-      </c>
       <c r="D99" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E99" t="n">
         <v>5</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>14</v>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>Civitavecchia</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -2826,31 +3321,36 @@
           <t>ms288_15_h_97</t>
         </is>
       </c>
-      <c r="B100" s="7" t="inlineStr">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ms288_15_h_97</t>
+        </is>
+      </c>
+      <c r="C100" s="7" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Liedkerke</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v>1845</v>
-      </c>
       <c r="D100" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E100" t="n">
         <v>6</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>29</v>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -2862,26 +3362,31 @@
           <t>ms288_15_h_98</t>
         </is>
       </c>
-      <c r="B101" s="3" t="inlineStr">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ms288_15_h_98</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>1945</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>6</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>10</v>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2893,7 +3398,12 @@
           <t>ms288_15_h_99</t>
         </is>
       </c>
-      <c r="B102" s="7" t="inlineStr">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ms288_15_h_99</t>
+        </is>
+      </c>
+      <c r="C102" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2905,7 +3415,12 @@
           <t>ms288_15_h_100</t>
         </is>
       </c>
-      <c r="B103" s="7" t="inlineStr">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ms288_15_h_99</t>
+        </is>
+      </c>
+      <c r="C103" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2917,7 +3432,12 @@
           <t>ms288_15_h_101</t>
         </is>
       </c>
-      <c r="B104" s="7" t="inlineStr">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ms288_15_h_99</t>
+        </is>
+      </c>
+      <c r="C104" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2929,7 +3449,12 @@
           <t>ms288_15_h_102</t>
         </is>
       </c>
-      <c r="B105" s="7" t="inlineStr">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ms288_15_h_99</t>
+        </is>
+      </c>
+      <c r="C105" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2941,7 +3466,12 @@
           <t>ms288_15_h_103</t>
         </is>
       </c>
-      <c r="B106" s="7" t="inlineStr">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ms288_15_h_99</t>
+        </is>
+      </c>
+      <c r="C106" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2953,7 +3483,12 @@
           <t>ms288_15_h_104</t>
         </is>
       </c>
-      <c r="B107" s="7" t="inlineStr">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ms288_15_h_99</t>
+        </is>
+      </c>
+      <c r="C107" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2965,26 +3500,31 @@
           <t>ms288_15_h_105</t>
         </is>
       </c>
-      <c r="B108" s="3" t="inlineStr">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ms288_15_h_105</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C108" t="n">
-        <v>1845</v>
-      </c>
       <c r="D108" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E108" t="n">
         <v>6</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>28</v>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2996,26 +3536,31 @@
           <t>ms288_15_h_106</t>
         </is>
       </c>
-      <c r="B109" s="3" t="inlineStr">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ms288_15_h_106</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>1945</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>6</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>28</v>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3027,26 +3572,31 @@
           <t>ms288_15_h_107</t>
         </is>
       </c>
-      <c r="B110" s="3" t="inlineStr">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ms288_15_h_107</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C110" t="n">
-        <v>1845</v>
-      </c>
       <c r="D110" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E110" t="n">
         <v>6</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>28</v>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3058,7 +3608,12 @@
           <t>ms288_15_h_108</t>
         </is>
       </c>
-      <c r="B111" s="7" t="inlineStr">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ms288_15_h_108</t>
+        </is>
+      </c>
+      <c r="C111" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3070,31 +3625,36 @@
           <t>ms288_15_h_109</t>
         </is>
       </c>
-      <c r="B112" s="7" t="inlineStr">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ms288_15_h_109</t>
+        </is>
+      </c>
+      <c r="C112" s="7" t="inlineStr">
         <is>
           <t>Lettera del $Chastel al $Liedkerke</t>
         </is>
       </c>
-      <c r="C112" t="n">
-        <v>1845</v>
-      </c>
       <c r="D112" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E112" t="n">
         <v>7</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>5</v>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -3106,36 +3666,41 @@
           <t>ms288_15_h_110</t>
         </is>
       </c>
-      <c r="B113" s="2" t="inlineStr">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ms288_15_h_110</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
         <is>
           <t>Relazione del $Pelichy a $OranjeWII</t>
         </is>
       </c>
-      <c r="C113" s="1" t="n">
+      <c r="D113" s="1" t="n">
         <v>1844</v>
       </c>
-      <c r="D113" s="1" t="n">
+      <c r="E113" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E113" s="1" t="n">
+      <c r="F113" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F113" s="1" t="inlineStr">
+      <c r="G113" s="1" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>$Pelichy</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>$OranjeWII</t>
         </is>
       </c>
-      <c r="J113" s="8" t="n"/>
+      <c r="K113" s="8" t="n"/>
     </row>
     <row r="114" ht="16" customFormat="1" customHeight="1" s="1">
       <c r="A114" s="1" t="inlineStr">
@@ -3143,36 +3708,41 @@
           <t>ms288_15_h_111</t>
         </is>
       </c>
-      <c r="B114" s="2" t="inlineStr">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ms288_15_h_110</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
         <is>
           <t>Relazione del $Pelichy a $OranjeWII</t>
         </is>
       </c>
-      <c r="C114" s="1" t="n">
+      <c r="D114" s="1" t="n">
         <v>1844</v>
       </c>
-      <c r="D114" s="1" t="n">
+      <c r="E114" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E114" s="1" t="n">
+      <c r="F114" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F114" s="1" t="inlineStr">
+      <c r="G114" s="1" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>$Pelichy</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>$OranjeWII</t>
         </is>
       </c>
-      <c r="J114" s="8" t="n"/>
+      <c r="K114" s="8" t="n"/>
     </row>
     <row r="115" ht="16" customFormat="1" customHeight="1" s="1">
       <c r="A115" s="1" t="inlineStr">
@@ -3180,36 +3750,41 @@
           <t>ms288_15_h_112</t>
         </is>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ms288_15_h_110</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>Relazione del $Pelichy a $OranjeWII</t>
         </is>
       </c>
-      <c r="C115" s="1" t="n">
+      <c r="D115" s="1" t="n">
         <v>1844</v>
       </c>
-      <c r="D115" s="1" t="n">
+      <c r="E115" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E115" s="1" t="n">
+      <c r="F115" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F115" s="1" t="inlineStr">
+      <c r="G115" s="1" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>$Pelichy</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>$OranjeWII</t>
         </is>
       </c>
-      <c r="J115" s="8" t="n"/>
+      <c r="K115" s="8" t="n"/>
     </row>
     <row r="116" ht="16" customFormat="1" customHeight="1" s="1">
       <c r="A116" s="1" t="inlineStr">
@@ -3217,36 +3792,41 @@
           <t>ms288_15_h_113</t>
         </is>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ms288_15_h_110</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>Relazione del $Pelichy a $OranjeWII</t>
         </is>
       </c>
-      <c r="C116" s="1" t="n">
+      <c r="D116" s="1" t="n">
         <v>1844</v>
       </c>
-      <c r="D116" s="1" t="n">
+      <c r="E116" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E116" s="1" t="n">
+      <c r="F116" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F116" s="1" t="inlineStr">
+      <c r="G116" s="1" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>$Pelichy</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>$OranjeWII</t>
         </is>
       </c>
-      <c r="J116" s="8" t="n"/>
+      <c r="K116" s="8" t="n"/>
     </row>
     <row r="117" ht="16" customFormat="1" customHeight="1" s="1">
       <c r="A117" s="1" t="inlineStr">
@@ -3254,36 +3834,41 @@
           <t>ms288_15_h_114</t>
         </is>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ms288_15_h_110</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
         <is>
           <t>Relazione del $Pelichy a $OranjeWII</t>
         </is>
       </c>
-      <c r="C117" s="1" t="n">
+      <c r="D117" s="1" t="n">
         <v>1844</v>
       </c>
-      <c r="D117" s="1" t="n">
+      <c r="E117" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E117" s="1" t="n">
+      <c r="F117" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F117" s="1" t="inlineStr">
+      <c r="G117" s="1" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>$Pelichy</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>$OranjeWII</t>
         </is>
       </c>
-      <c r="J117" s="8" t="n"/>
+      <c r="K117" s="8" t="n"/>
     </row>
     <row r="118" ht="16" customFormat="1" customHeight="1" s="1">
       <c r="A118" s="1" t="inlineStr">
@@ -3291,36 +3876,41 @@
           <t>ms288_15_h_115</t>
         </is>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ms288_15_h_110</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
         <is>
           <t>Relazione del $Pelichy a $OranjeWII</t>
         </is>
       </c>
-      <c r="C118" s="1" t="n">
+      <c r="D118" s="1" t="n">
         <v>1844</v>
       </c>
-      <c r="D118" s="1" t="n">
+      <c r="E118" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E118" s="1" t="n">
+      <c r="F118" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F118" s="1" t="inlineStr">
+      <c r="G118" s="1" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>$Pelichy</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>$OranjeWII</t>
         </is>
       </c>
-      <c r="J118" s="8" t="n"/>
+      <c r="K118" s="8" t="n"/>
     </row>
     <row r="119" ht="16" customHeight="1" s="6">
       <c r="A119" t="inlineStr">
@@ -3328,7 +3918,12 @@
           <t>ms288_15_h_116</t>
         </is>
       </c>
-      <c r="B119" s="7" t="inlineStr">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ms288_15_h_116</t>
+        </is>
+      </c>
+      <c r="C119" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3340,7 +3935,12 @@
           <t>ms288_15_h_117</t>
         </is>
       </c>
-      <c r="B120" s="7" t="inlineStr">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ms288_15_h_116</t>
+        </is>
+      </c>
+      <c r="C120" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3352,36 +3952,41 @@
           <t>ms288_15_h_118</t>
         </is>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ms288_15_h_118</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>Relazione del $Pelichy a $OranjeWII - Traduzione della circolare</t>
         </is>
       </c>
-      <c r="C121" s="1" t="n">
+      <c r="D121" s="1" t="n">
         <v>1844</v>
       </c>
-      <c r="D121" s="1" t="n">
+      <c r="E121" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E121" s="1" t="n">
+      <c r="F121" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F121" s="1" t="inlineStr">
+      <c r="G121" s="1" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>$Pelichy</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>$OranjeWII</t>
         </is>
       </c>
-      <c r="J121" s="8" t="n"/>
+      <c r="K121" s="8" t="n"/>
     </row>
     <row r="122" ht="16" customHeight="1" s="6">
       <c r="A122" t="inlineStr">
@@ -3389,7 +3994,12 @@
           <t>ms288_15_h_119</t>
         </is>
       </c>
-      <c r="B122" s="7" t="inlineStr">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ms288_15_h_119</t>
+        </is>
+      </c>
+      <c r="C122" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3401,7 +4011,12 @@
           <t>ms288_15_h_120</t>
         </is>
       </c>
-      <c r="B123" s="7" t="inlineStr">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ms288_15_h_119</t>
+        </is>
+      </c>
+      <c r="C123" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3413,7 +4028,12 @@
           <t>ms288_15_h_121</t>
         </is>
       </c>
-      <c r="B124" s="7" t="inlineStr">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ms288_15_h_119</t>
+        </is>
+      </c>
+      <c r="C124" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3425,7 +4045,12 @@
           <t>ms288_15_h_122</t>
         </is>
       </c>
-      <c r="B125" s="7" t="inlineStr">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ms288_15_h_119</t>
+        </is>
+      </c>
+      <c r="C125" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3437,26 +4062,31 @@
           <t>ms288_15_h_123</t>
         </is>
       </c>
-      <c r="B126" s="3" t="inlineStr">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ms288_15_h_123</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C126" t="n">
-        <v>1845</v>
-      </c>
       <c r="D126" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E126" t="n">
         <v>7</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>9</v>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3468,26 +4098,31 @@
           <t>ms288_15_h_124</t>
         </is>
       </c>
-      <c r="B127" s="3" t="inlineStr">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ms288_15_h_123</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C127" t="n">
-        <v>1845</v>
-      </c>
       <c r="D127" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E127" t="n">
         <v>7</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>9</v>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3499,26 +4134,31 @@
           <t>ms288_15_h_125</t>
         </is>
       </c>
-      <c r="B128" s="3" t="inlineStr">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ms288_15_h_123</t>
+        </is>
+      </c>
+      <c r="C128" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C128" t="n">
-        <v>1845</v>
-      </c>
       <c r="D128" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E128" t="n">
         <v>7</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>9</v>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3530,26 +4170,31 @@
           <t>ms288_15_h_126</t>
         </is>
       </c>
-      <c r="B129" s="3" t="inlineStr">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ms288_15_h_123</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C129" t="n">
-        <v>1845</v>
-      </c>
       <c r="D129" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E129" t="n">
         <v>7</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
         <v>9</v>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3561,18 +4206,23 @@
           <t>ms288_15_h_127</t>
         </is>
       </c>
-      <c r="B130" s="7" t="inlineStr">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ms288_15_h_127</t>
+        </is>
+      </c>
+      <c r="C130" s="7" t="inlineStr">
         <is>
           <t>Estratto dal Journal des Débats</t>
         </is>
       </c>
-      <c r="C130" t="n">
-        <v>1845</v>
-      </c>
       <c r="D130" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E130" t="n">
         <v>9</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3582,18 +4232,23 @@
           <t>ms288_15_h_128</t>
         </is>
       </c>
-      <c r="B131" s="7" t="inlineStr">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ms288_15_h_127</t>
+        </is>
+      </c>
+      <c r="C131" s="7" t="inlineStr">
         <is>
           <t>Estratto dal Journal des Débats</t>
         </is>
       </c>
-      <c r="C131" t="n">
-        <v>1845</v>
-      </c>
       <c r="D131" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E131" t="n">
         <v>9</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3603,20 +4258,25 @@
           <t>ms288_15_h_129</t>
         </is>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ms288_15_h_129</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>Foglio a stampa “Notificazione” del $Antonelli circa le tariffe daziarie a favore dei fabbricatori di panni di lana (Roma, Stamperia della Rev. Cam. Apost., 1845)</t>
         </is>
       </c>
-      <c r="C132" s="1" t="n">
-        <v>1845</v>
-      </c>
-      <c r="G132" t="inlineStr">
+      <c r="D132" s="1" t="n">
+        <v>1845</v>
+      </c>
+      <c r="H132" t="inlineStr">
         <is>
           <t>$Antonelli</t>
         </is>
       </c>
-      <c r="J132" s="8" t="n"/>
+      <c r="K132" s="8" t="n"/>
     </row>
     <row r="133" ht="16" customFormat="1" customHeight="1" s="1">
       <c r="A133" s="1" t="inlineStr">
@@ -3624,20 +4284,25 @@
           <t>ms288_15_h_130</t>
         </is>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ms288_15_h_129</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>Foglio a stampa “Notificazione” del $Antonelli circa le tariffe daziarie a favore dei fabbricatori di panni di lana (Roma, Stamperia della Rev. Cam. Apost., 1845)</t>
         </is>
       </c>
-      <c r="C133" s="1" t="n">
-        <v>1845</v>
-      </c>
-      <c r="G133" t="inlineStr">
+      <c r="D133" s="1" t="n">
+        <v>1845</v>
+      </c>
+      <c r="H133" t="inlineStr">
         <is>
           <t>$Antonelli</t>
         </is>
       </c>
-      <c r="J133" s="8" t="n"/>
+      <c r="K133" s="8" t="n"/>
     </row>
     <row r="134" ht="16" customFormat="1" customHeight="1" s="1">
       <c r="A134" s="1" t="inlineStr">
@@ -3645,20 +4310,25 @@
           <t>ms288_15_h_131</t>
         </is>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ms288_15_h_129</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
         <is>
           <t>Foglio a stampa “Notificazione” del $Antonelli circa le tariffe daziarie a favore dei fabbricatori di panni di lana (Roma, Stamperia della Rev. Cam. Apost., 1845)</t>
         </is>
       </c>
-      <c r="C134" s="1" t="n">
-        <v>1845</v>
-      </c>
-      <c r="G134" t="inlineStr">
+      <c r="D134" s="1" t="n">
+        <v>1845</v>
+      </c>
+      <c r="H134" t="inlineStr">
         <is>
           <t>$Antonelli</t>
         </is>
       </c>
-      <c r="J134" s="8" t="n"/>
+      <c r="K134" s="8" t="n"/>
     </row>
     <row r="135" ht="16" customFormat="1" customHeight="1" s="1">
       <c r="A135" s="1" t="inlineStr">
@@ -3666,20 +4336,25 @@
           <t>ms288_15_h_132</t>
         </is>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ms288_15_h_129</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
         <is>
           <t>Foglio a stampa “Notificazione” del $Antonelli circa le tariffe daziarie a favore dei fabbricatori di panni di lana (Roma, Stamperia della Rev. Cam. Apost., 1845)</t>
         </is>
       </c>
-      <c r="C135" s="1" t="n">
-        <v>1845</v>
-      </c>
-      <c r="G135" t="inlineStr">
+      <c r="D135" s="1" t="n">
+        <v>1845</v>
+      </c>
+      <c r="H135" t="inlineStr">
         <is>
           <t>$Antonelli</t>
         </is>
       </c>
-      <c r="J135" s="8" t="n"/>
+      <c r="K135" s="8" t="n"/>
     </row>
     <row r="136" ht="16" customHeight="1" s="6">
       <c r="A136" t="inlineStr">
@@ -3687,7 +4362,12 @@
           <t>ms288_15_h_133</t>
         </is>
       </c>
-      <c r="B136" s="7" t="inlineStr">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ms288_15_h_133</t>
+        </is>
+      </c>
+      <c r="C136" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3699,7 +4379,12 @@
           <t>ms288_15_h_134</t>
         </is>
       </c>
-      <c r="B137" s="7" t="inlineStr">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ms288_15_h_133</t>
+        </is>
+      </c>
+      <c r="C137" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3711,31 +4396,36 @@
           <t>ms288_15_h_135</t>
         </is>
       </c>
-      <c r="B138" s="3" t="inlineStr">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ms288_15_h_135</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Chastel</t>
         </is>
       </c>
-      <c r="C138" t="n">
-        <v>1845</v>
-      </c>
       <c r="D138" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E138" t="n">
         <v>8</v>
       </c>
-      <c r="E138" t="n">
+      <c r="F138" t="n">
         <v>5</v>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -3747,31 +4437,36 @@
           <t>ms288_15_h_136</t>
         </is>
       </c>
-      <c r="B139" s="7" t="inlineStr">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ms288_15_h_136</t>
+        </is>
+      </c>
+      <c r="C139" s="7" t="inlineStr">
         <is>
           <t>Lettera del $Chastel al $Liedkerke</t>
         </is>
       </c>
-      <c r="C139" t="n">
-        <v>1845</v>
-      </c>
       <c r="D139" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E139" t="n">
         <v>7</v>
       </c>
-      <c r="E139" t="n">
+      <c r="F139" t="n">
         <v>31</v>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -3783,31 +4478,36 @@
           <t>ms288_15_h_137</t>
         </is>
       </c>
-      <c r="B140" s="7" t="inlineStr">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ms288_15_h_136</t>
+        </is>
+      </c>
+      <c r="C140" s="7" t="inlineStr">
         <is>
           <t>Lettera del $Chastel al $Liedkerke</t>
         </is>
       </c>
-      <c r="C140" t="n">
-        <v>1845</v>
-      </c>
       <c r="D140" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E140" t="n">
         <v>7</v>
       </c>
-      <c r="E140" t="n">
+      <c r="F140" t="n">
         <v>31</v>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -3819,26 +4519,31 @@
           <t>ms288_15_h_138</t>
         </is>
       </c>
-      <c r="B141" s="7" t="inlineStr">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ms288_15_h_138</t>
+        </is>
+      </c>
+      <c r="C141" s="7" t="inlineStr">
         <is>
           <t>Lettera al $Marini</t>
         </is>
       </c>
-      <c r="C141" t="n">
-        <v>1845</v>
-      </c>
       <c r="D141" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E141" t="n">
         <v>6</v>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>23</v>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>$Marini</t>
         </is>
@@ -3850,26 +4555,31 @@
           <t>ms288_15_h_139</t>
         </is>
       </c>
-      <c r="B142" s="7" t="inlineStr">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ms288_15_h_139</t>
+        </is>
+      </c>
+      <c r="C142" s="7" t="inlineStr">
         <is>
           <t>Lettera al $Marini</t>
         </is>
       </c>
-      <c r="C142" t="n">
-        <v>1845</v>
-      </c>
       <c r="D142" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E142" t="n">
         <v>7</v>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>14</v>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t>$Marini</t>
         </is>
@@ -3881,26 +4591,31 @@
           <t>ms288_15_h_140</t>
         </is>
       </c>
-      <c r="B143" s="3" t="inlineStr">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ms288_15_h_140</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C143" t="n">
-        <v>1845</v>
-      </c>
       <c r="D143" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E143" t="n">
         <v>6</v>
       </c>
-      <c r="E143" t="n">
+      <c r="F143" t="n">
         <v>25</v>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3912,26 +4627,31 @@
           <t>ms288_15_h_141</t>
         </is>
       </c>
-      <c r="B144" s="3" t="inlineStr">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ms288_15_h_140</t>
+        </is>
+      </c>
+      <c r="C144" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C144" t="n">
-        <v>1845</v>
-      </c>
       <c r="D144" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E144" t="n">
         <v>6</v>
       </c>
-      <c r="E144" t="n">
+      <c r="F144" t="n">
         <v>25</v>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3943,31 +4663,36 @@
           <t>ms288_15_h_142</t>
         </is>
       </c>
-      <c r="B145" s="7" t="inlineStr">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ms288_15_h_142</t>
+        </is>
+      </c>
+      <c r="C145" s="7" t="inlineStr">
         <is>
           <t>Lettera del $Marini al $Liedkerke sull'abate Myre</t>
         </is>
       </c>
-      <c r="C145" t="n">
-        <v>1845</v>
-      </c>
       <c r="D145" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E145" t="n">
         <v>6</v>
       </c>
-      <c r="E145" t="n">
+      <c r="F145" t="n">
         <v>20</v>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>$Marini</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -3979,7 +4704,12 @@
           <t>ms288_15_h_143</t>
         </is>
       </c>
-      <c r="B146" s="7" t="inlineStr">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ms288_15_h_143</t>
+        </is>
+      </c>
+      <c r="C146" s="7" t="inlineStr">
         <is>
           <t>Foglio a stampa “Statuti della Società Olivi-Moricola dello Stato Pontificio. Depositati presso il Sig. Antonio Blasi Notaro di Collegio del Campidoglio in Roma con Studio in Via Florida Num. 13 a quest'effetto deputato” (Roma, 14 nov. 1844)</t>
         </is>
@@ -3991,7 +4721,12 @@
           <t>ms288_15_h_144</t>
         </is>
       </c>
-      <c r="B147" s="7" t="inlineStr">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ms288_15_h_143</t>
+        </is>
+      </c>
+      <c r="C147" s="7" t="inlineStr">
         <is>
           <t>Foglio a stampa “Statuti della Società Olivi-Moricola dello Stato Pontificio. Depositati presso il Sig. Antonio Blasi Notaro di Collegio del Campidoglio in Roma con Studio in Via Florida Num. 13 a quest'effetto deputato” (Roma, 14 nov. 1844)</t>
         </is>
@@ -4003,7 +4738,12 @@
           <t>ms288_15_h_145</t>
         </is>
       </c>
-      <c r="B148" s="7" t="inlineStr">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ms288_15_h_143</t>
+        </is>
+      </c>
+      <c r="C148" s="7" t="inlineStr">
         <is>
           <t>Foglio a stampa “Statuti della Società Olivi-Moricola dello Stato Pontificio. Depositati presso il Sig. Antonio Blasi Notaro di Collegio del Campidoglio in Roma con Studio in Via Florida Num. 13 a quest'effetto deputato” (Roma, 14 nov. 1844)</t>
         </is>
@@ -4015,7 +4755,12 @@
           <t>ms288_15_h_146</t>
         </is>
       </c>
-      <c r="B149" s="7" t="inlineStr">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ms288_15_h_143</t>
+        </is>
+      </c>
+      <c r="C149" s="7" t="inlineStr">
         <is>
           <t>Foglio a stampa “Statuti della Società Olivi-Moricola dello Stato Pontificio. Depositati presso il Sig. Antonio Blasi Notaro di Collegio del Campidoglio in Roma con Studio in Via Florida Num. 13 a quest'effetto deputato” (Roma, 14 nov. 1844)</t>
         </is>
@@ -4027,7 +4772,12 @@
           <t>ms288_15_h_147</t>
         </is>
       </c>
-      <c r="B150" s="7" t="inlineStr">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ms288_15_h_143</t>
+        </is>
+      </c>
+      <c r="C150" s="7" t="inlineStr">
         <is>
           <t>Foglio a stampa “Statuti della Società Olivi-Moricola dello Stato Pontificio. Depositati presso il Sig. Antonio Blasi Notaro di Collegio del Campidoglio in Roma con Studio in Via Florida Num. 13 a quest'effetto deputato” (Roma, 14 nov. 1844)</t>
         </is>
@@ -4039,7 +4789,12 @@
           <t>ms288_15_h_148</t>
         </is>
       </c>
-      <c r="B151" s="7" t="inlineStr">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ms288_15_h_143</t>
+        </is>
+      </c>
+      <c r="C151" s="7" t="inlineStr">
         <is>
           <t>Foglio a stampa “Statuti della Società Olivi-Moricola dello Stato Pontificio. Depositati presso il Sig. Antonio Blasi Notaro di Collegio del Campidoglio in Roma con Studio in Via Florida Num. 13 a quest'effetto deputato” (Roma, 14 nov. 1844)</t>
         </is>
@@ -4051,7 +4806,12 @@
           <t>ms288_15_h_149</t>
         </is>
       </c>
-      <c r="B152" s="7" t="inlineStr">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ms288_15_h_143</t>
+        </is>
+      </c>
+      <c r="C152" s="7" t="inlineStr">
         <is>
           <t>Foglio a stampa “Statuti della Società Olivi-Moricola dello Stato Pontificio. Depositati presso il Sig. Antonio Blasi Notaro di Collegio del Campidoglio in Roma con Studio in Via Florida Num. 13 a quest'effetto deputato” (Roma, 14 nov. 1844)</t>
         </is>
@@ -4063,7 +4823,12 @@
           <t>ms288_15_h_150</t>
         </is>
       </c>
-      <c r="B153" s="7" t="inlineStr">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ms288_15_h_143</t>
+        </is>
+      </c>
+      <c r="C153" s="7" t="inlineStr">
         <is>
           <t>Foglio a stampa “Statuti della Società Olivi-Moricola dello Stato Pontificio. Depositati presso il Sig. Antonio Blasi Notaro di Collegio del Campidoglio in Roma con Studio in Via Florida Num. 13 a quest'effetto deputato” (Roma, 14 nov. 1844)</t>
         </is>
@@ -4075,7 +4840,12 @@
           <t>ms288_15_h_151a</t>
         </is>
       </c>
-      <c r="B154" s="7" t="inlineStr">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ms288_15_h_151a</t>
+        </is>
+      </c>
+      <c r="C154" s="7" t="inlineStr">
         <is>
           <t>“Specchio della istituzione e dei vantaggi della Società Olivi-Moricola dello Stato Pontificio” (1844)</t>
         </is>
@@ -4087,7 +4857,12 @@
           <t>ms288_15_h_151b</t>
         </is>
       </c>
-      <c r="B155" s="7" t="inlineStr">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ms288_15_h_151a</t>
+        </is>
+      </c>
+      <c r="C155" s="7" t="inlineStr">
         <is>
           <t>“Specchio della istituzione e dei vantaggi della Società Olivi-Moricola dello Stato Pontificio” (1844)</t>
         </is>
@@ -4099,7 +4874,12 @@
           <t>ms288_15_h_152</t>
         </is>
       </c>
-      <c r="B156" s="7" t="inlineStr">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ms288_15_h_152</t>
+        </is>
+      </c>
+      <c r="C156" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4111,7 +4891,12 @@
           <t>ms288_15_h_153</t>
         </is>
       </c>
-      <c r="B157" s="7" t="inlineStr">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ms288_15_h_152</t>
+        </is>
+      </c>
+      <c r="C157" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4123,7 +4908,12 @@
           <t>ms288_15_h_154</t>
         </is>
       </c>
-      <c r="B158" s="7" t="inlineStr">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ms288_15_h_152</t>
+        </is>
+      </c>
+      <c r="C158" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4135,7 +4925,12 @@
           <t>ms288_15_h_155</t>
         </is>
       </c>
-      <c r="B159" s="7" t="inlineStr">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ms288_15_h_152</t>
+        </is>
+      </c>
+      <c r="C159" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4147,26 +4942,31 @@
           <t>ms288_15_h_156</t>
         </is>
       </c>
-      <c r="B160" s="3" t="inlineStr">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ms288_15_h_156</t>
+        </is>
+      </c>
+      <c r="C160" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C160" t="n">
-        <v>1845</v>
-      </c>
       <c r="D160" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E160" t="n">
         <v>8</v>
       </c>
-      <c r="E160" t="n">
+      <c r="F160" t="n">
         <v>15</v>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="I160" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4178,12 +4978,17 @@
           <t>ms288_15_h_157</t>
         </is>
       </c>
-      <c r="B161" s="3" t="inlineStr">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ms288_15_h_157</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="I161" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4195,31 +5000,36 @@
           <t>ms288_15_h_158</t>
         </is>
       </c>
-      <c r="B162" s="7" t="inlineStr">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ms288_15_h_158</t>
+        </is>
+      </c>
+      <c r="C162" s="7" t="inlineStr">
         <is>
           <t>Lettera di $ArataL al $Chastel</t>
         </is>
       </c>
-      <c r="C162" t="n">
-        <v>1845</v>
-      </c>
       <c r="D162" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E162" t="n">
         <v>7</v>
       </c>
-      <c r="E162" t="n">
+      <c r="F162" t="n">
         <v>27</v>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>Civitavecchia</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="I162" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -4231,31 +5041,36 @@
           <t>ms288_15_h_159</t>
         </is>
       </c>
-      <c r="B163" s="7" t="inlineStr">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ms288_15_h_158</t>
+        </is>
+      </c>
+      <c r="C163" s="7" t="inlineStr">
         <is>
           <t>Lettera di $ArataL al $Chastel</t>
         </is>
       </c>
-      <c r="C163" t="n">
-        <v>1845</v>
-      </c>
       <c r="D163" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E163" t="n">
         <v>7</v>
       </c>
-      <c r="E163" t="n">
+      <c r="F163" t="n">
         <v>27</v>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>Civitavecchia</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="I163" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -4267,12 +5082,17 @@
           <t>ms288_15_h_160</t>
         </is>
       </c>
-      <c r="B164" s="7" t="inlineStr">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ms288_15_h_160</t>
+        </is>
+      </c>
+      <c r="C164" s="7" t="inlineStr">
         <is>
           <t>Lettera a $ArataL</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="I164" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
@@ -4284,31 +5104,36 @@
           <t>ms288_15_h_161</t>
         </is>
       </c>
-      <c r="B165" s="7" t="inlineStr">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ms288_15_h_161</t>
+        </is>
+      </c>
+      <c r="C165" s="7" t="inlineStr">
         <is>
           <t>Lettera di $ArataL al $Chastel</t>
         </is>
       </c>
-      <c r="C165" t="n">
-        <v>1845</v>
-      </c>
       <c r="D165" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E165" t="n">
         <v>7</v>
       </c>
-      <c r="E165" t="n">
+      <c r="F165" t="n">
         <v>20</v>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>Civitavecchia</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="I165" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -4320,31 +5145,36 @@
           <t>ms288_15_h_162</t>
         </is>
       </c>
-      <c r="B166" s="7" t="inlineStr">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ms288_15_h_161</t>
+        </is>
+      </c>
+      <c r="C166" s="7" t="inlineStr">
         <is>
           <t>Lettera di $ArataL al $Chastel</t>
         </is>
       </c>
-      <c r="C166" t="n">
-        <v>1845</v>
-      </c>
       <c r="D166" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E166" t="n">
         <v>7</v>
       </c>
-      <c r="E166" t="n">
+      <c r="F166" t="n">
         <v>20</v>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>Civitavecchia</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="I166" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -4356,7 +5186,12 @@
           <t>ms288_15_h_163</t>
         </is>
       </c>
-      <c r="B167" s="7" t="inlineStr">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ms288_15_h_163</t>
+        </is>
+      </c>
+      <c r="C167" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4368,26 +5203,31 @@
           <t>ms288_15_h_164</t>
         </is>
       </c>
-      <c r="B168" s="7" t="inlineStr">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ms288_15_h_164</t>
+        </is>
+      </c>
+      <c r="C168" s="7" t="inlineStr">
         <is>
           <t>Lettera di $CasarettoJ</t>
         </is>
       </c>
-      <c r="C168" t="n">
-        <v>1845</v>
-      </c>
       <c r="D168" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E168" t="n">
         <v>8</v>
       </c>
-      <c r="E168" t="n">
+      <c r="F168" t="n">
         <v>10</v>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>Senigallia</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>$CasarettoJ</t>
         </is>
@@ -4399,21 +5239,26 @@
           <t>ms288_15_h_165</t>
         </is>
       </c>
-      <c r="B169" s="7" t="inlineStr">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ms288_15_h_165</t>
+        </is>
+      </c>
+      <c r="C169" s="7" t="inlineStr">
         <is>
           <t>Lettera di $CasarettoJ</t>
         </is>
       </c>
-      <c r="C169" t="n">
-        <v>1845</v>
-      </c>
       <c r="D169" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E169" t="n">
         <v>8</v>
       </c>
-      <c r="E169" t="n">
+      <c r="F169" t="n">
         <v>10</v>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t>$CasarettoJ</t>
         </is>
@@ -4425,26 +5270,31 @@
           <t>ms288_15_h_166</t>
         </is>
       </c>
-      <c r="B170" s="7" t="inlineStr">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ms288_15_h_166</t>
+        </is>
+      </c>
+      <c r="C170" s="7" t="inlineStr">
         <is>
           <t>Lettera a $ArataL</t>
         </is>
       </c>
-      <c r="C170" t="n">
-        <v>1845</v>
-      </c>
       <c r="D170" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E170" t="n">
         <v>7</v>
       </c>
-      <c r="E170" t="n">
+      <c r="F170" t="n">
         <v>16</v>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="I170" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
@@ -4456,31 +5306,36 @@
           <t>ms288_15_h_167</t>
         </is>
       </c>
-      <c r="B171" s="3" t="inlineStr">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ms288_15_h_167</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Chastel</t>
         </is>
       </c>
-      <c r="C171" t="n">
-        <v>1845</v>
-      </c>
       <c r="D171" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E171" t="n">
         <v>7</v>
       </c>
-      <c r="E171" t="n">
+      <c r="F171" t="n">
         <v>30</v>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
+      <c r="I171" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -4492,7 +5347,12 @@
           <t>ms288_15_h_168</t>
         </is>
       </c>
-      <c r="B172" s="7" t="inlineStr">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ms288_15_h_168</t>
+        </is>
+      </c>
+      <c r="C172" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4504,7 +5364,12 @@
           <t>ms288_15_h_169</t>
         </is>
       </c>
-      <c r="B173" s="7" t="inlineStr">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ms288_15_h_168</t>
+        </is>
+      </c>
+      <c r="C173" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4516,7 +5381,12 @@
           <t>ms288_15_h_170</t>
         </is>
       </c>
-      <c r="B174" s="7" t="inlineStr">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ms288_15_h_168</t>
+        </is>
+      </c>
+      <c r="C174" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4528,7 +5398,12 @@
           <t>ms288_15_h_171</t>
         </is>
       </c>
-      <c r="B175" s="7" t="inlineStr">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ms288_15_h_168</t>
+        </is>
+      </c>
+      <c r="C175" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4540,7 +5415,12 @@
           <t>ms288_15_h_172</t>
         </is>
       </c>
-      <c r="B176" s="7" t="inlineStr">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ms288_15_h_168</t>
+        </is>
+      </c>
+      <c r="C176" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4552,26 +5432,31 @@
           <t>ms288_15_h_173</t>
         </is>
       </c>
-      <c r="B177" s="3" t="inlineStr">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ms288_15_h_173</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C177" t="n">
-        <v>1845</v>
-      </c>
       <c r="D177" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E177" t="n">
         <v>8</v>
       </c>
-      <c r="E177" t="n">
+      <c r="F177" t="n">
         <v>29</v>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="I177" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4583,31 +5468,36 @@
           <t>ms288_15_h_174</t>
         </is>
       </c>
-      <c r="B178" s="3" t="inlineStr">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ms288_15_h_174</t>
+        </is>
+      </c>
+      <c r="C178" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Chastel</t>
         </is>
       </c>
-      <c r="C178" t="n">
-        <v>1845</v>
-      </c>
       <c r="D178" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E178" t="n">
         <v>8</v>
       </c>
-      <c r="E178" t="n">
+      <c r="F178" t="n">
         <v>9</v>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="I178" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -4619,26 +5509,31 @@
           <t>ms288_15_h_175</t>
         </is>
       </c>
-      <c r="B179" s="7" t="inlineStr">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ms288_15_h_175</t>
+        </is>
+      </c>
+      <c r="C179" s="7" t="inlineStr">
         <is>
           <t>Lettera al $CasarettoJ</t>
         </is>
       </c>
-      <c r="C179" t="n">
-        <v>1845</v>
-      </c>
       <c r="D179" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E179" t="n">
         <v>10</v>
       </c>
-      <c r="E179" t="n">
+      <c r="F179" t="n">
         <v>13</v>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="I179" t="inlineStr">
         <is>
           <t>$CasarettoJ</t>
         </is>
@@ -4650,31 +5545,36 @@
           <t>ms288_15_h_176</t>
         </is>
       </c>
-      <c r="B180" s="7" t="inlineStr">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ms288_15_h_176</t>
+        </is>
+      </c>
+      <c r="C180" s="7" t="inlineStr">
         <is>
           <t>Lettera di $ArataL al $Chastel</t>
         </is>
       </c>
-      <c r="C180" t="n">
-        <v>1845</v>
-      </c>
       <c r="D180" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E180" t="n">
         <v>10</v>
       </c>
-      <c r="E180" t="n">
+      <c r="F180" t="n">
         <v>17</v>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>Civitavecchia</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="I180" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -4686,31 +5586,36 @@
           <t>ms288_15_h_177</t>
         </is>
       </c>
-      <c r="B181" s="7" t="inlineStr">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ms288_15_h_177</t>
+        </is>
+      </c>
+      <c r="C181" s="7" t="inlineStr">
         <is>
           <t>Lettera di $ArataL al $Chastel</t>
         </is>
       </c>
-      <c r="C181" t="n">
-        <v>1845</v>
-      </c>
       <c r="D181" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E181" t="n">
         <v>8</v>
       </c>
-      <c r="E181" t="n">
+      <c r="F181" t="n">
         <v>31</v>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>Civitavecchia</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
+      <c r="I181" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -4722,26 +5627,31 @@
           <t>ms288_15_h_178</t>
         </is>
       </c>
-      <c r="B182" s="7" t="inlineStr">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ms288_15_h_178</t>
+        </is>
+      </c>
+      <c r="C182" s="7" t="inlineStr">
         <is>
           <t>Lettera al $CasarettoJ</t>
         </is>
       </c>
-      <c r="C182" t="n">
-        <v>1845</v>
-      </c>
       <c r="D182" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E182" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="n">
+      <c r="F182" t="n">
         <v>29</v>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="I182" t="inlineStr">
         <is>
           <t>$CasarettoJ</t>
         </is>
@@ -4753,7 +5663,12 @@
           <t>ms288_15_h_179</t>
         </is>
       </c>
-      <c r="B183" s="7" t="inlineStr">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ms288_15_h_179</t>
+        </is>
+      </c>
+      <c r="C183" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4765,7 +5680,12 @@
           <t>ms288_15_h_180</t>
         </is>
       </c>
-      <c r="B184" s="7" t="inlineStr">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ms288_15_h_179</t>
+        </is>
+      </c>
+      <c r="C184" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4777,7 +5697,12 @@
           <t>ms288_15_h_181</t>
         </is>
       </c>
-      <c r="B185" s="7" t="inlineStr">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ms288_15_h_179</t>
+        </is>
+      </c>
+      <c r="C185" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4789,7 +5714,12 @@
           <t>ms288_15_h_182</t>
         </is>
       </c>
-      <c r="B186" s="7" t="inlineStr">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ms288_15_h_179</t>
+        </is>
+      </c>
+      <c r="C186" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4801,7 +5731,12 @@
           <t>ms288_15_h_183</t>
         </is>
       </c>
-      <c r="B187" s="7" t="inlineStr">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ms288_15_h_179</t>
+        </is>
+      </c>
+      <c r="C187" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4813,7 +5748,12 @@
           <t>ms288_15_h_184</t>
         </is>
       </c>
-      <c r="B188" s="7" t="inlineStr">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ms288_15_h_179</t>
+        </is>
+      </c>
+      <c r="C188" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4825,26 +5765,31 @@
           <t>ms288_15_h_185</t>
         </is>
       </c>
-      <c r="B189" s="3" t="inlineStr">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ms288_15_h_185</t>
+        </is>
+      </c>
+      <c r="C189" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C189" t="n">
-        <v>1845</v>
-      </c>
       <c r="D189" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E189" t="n">
         <v>10</v>
       </c>
-      <c r="E189" t="n">
+      <c r="F189" t="n">
         <v>14</v>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
+      <c r="I189" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4856,26 +5801,31 @@
           <t>ms288_15_h_186</t>
         </is>
       </c>
-      <c r="B190" s="3" t="inlineStr">
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ms288_15_h_185</t>
+        </is>
+      </c>
+      <c r="C190" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C190" t="n">
-        <v>1845</v>
-      </c>
       <c r="D190" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E190" t="n">
         <v>10</v>
       </c>
-      <c r="E190" t="n">
+      <c r="F190" t="n">
         <v>14</v>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
+      <c r="I190" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4887,26 +5837,31 @@
           <t>ms288_15_h_187</t>
         </is>
       </c>
-      <c r="B191" s="3" t="inlineStr">
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>ms288_15_h_185</t>
+        </is>
+      </c>
+      <c r="C191" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C191" t="n">
-        <v>1845</v>
-      </c>
       <c r="D191" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E191" t="n">
         <v>10</v>
       </c>
-      <c r="E191" t="n">
+      <c r="F191" t="n">
         <v>14</v>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
+      <c r="I191" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4918,26 +5873,31 @@
           <t>ms288_15_h_188</t>
         </is>
       </c>
-      <c r="B192" s="7" t="inlineStr">
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ms288_15_h_188</t>
+        </is>
+      </c>
+      <c r="C192" s="7" t="inlineStr">
         <is>
           <t>Lettera al $CasarettoJ</t>
         </is>
       </c>
-      <c r="C192" t="n">
-        <v>1845</v>
-      </c>
       <c r="D192" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E192" t="n">
         <v>11</v>
       </c>
-      <c r="E192" t="n">
+      <c r="F192" t="n">
         <v>15</v>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="I192" t="inlineStr">
         <is>
           <t>$CasarettoJ</t>
         </is>
@@ -4949,26 +5909,31 @@
           <t>ms288_15_h_189</t>
         </is>
       </c>
-      <c r="B193" s="3" t="inlineStr">
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ms288_15_h_189</t>
+        </is>
+      </c>
+      <c r="C193" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Chastel</t>
         </is>
       </c>
-      <c r="C193" t="n">
-        <v>1845</v>
-      </c>
       <c r="D193" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E193" t="n">
         <v>10</v>
       </c>
-      <c r="E193" t="n">
+      <c r="F193" t="n">
         <v>29</v>
       </c>
-      <c r="G193" t="inlineStr">
+      <c r="H193" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
+      <c r="I193" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -4980,7 +5945,12 @@
           <t>ms288_15_h_190</t>
         </is>
       </c>
-      <c r="B194" s="7" t="inlineStr">
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ms288_15_h_190</t>
+        </is>
+      </c>
+      <c r="C194" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4992,7 +5962,12 @@
           <t>ms288_15_h_191</t>
         </is>
       </c>
-      <c r="B195" s="7" t="inlineStr">
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ms288_15_h_190</t>
+        </is>
+      </c>
+      <c r="C195" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5004,7 +5979,12 @@
           <t>ms288_15_h_192</t>
         </is>
       </c>
-      <c r="B196" s="7" t="inlineStr">
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ms288_15_h_190</t>
+        </is>
+      </c>
+      <c r="C196" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5016,7 +5996,12 @@
           <t>ms288_15_h_193</t>
         </is>
       </c>
-      <c r="B197" s="3" t="inlineStr">
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ms288_15_h_190</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5028,26 +6013,31 @@
           <t>ms288_15_h_194</t>
         </is>
       </c>
-      <c r="B198" s="3" t="inlineStr">
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ms288_15_h_194</t>
+        </is>
+      </c>
+      <c r="C198" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C198" t="n">
-        <v>1845</v>
-      </c>
       <c r="D198" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E198" t="n">
         <v>10</v>
       </c>
-      <c r="E198" t="n">
+      <c r="F198" t="n">
         <v>31</v>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
+      <c r="I198" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5059,26 +6049,31 @@
           <t>ms288_15_h_195</t>
         </is>
       </c>
-      <c r="B199" s="3" t="inlineStr">
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ms288_15_h_194</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C199" t="n">
-        <v>1845</v>
-      </c>
       <c r="D199" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E199" t="n">
         <v>10</v>
       </c>
-      <c r="E199" t="n">
+      <c r="F199" t="n">
         <v>31</v>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
+      <c r="I199" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5090,31 +6085,36 @@
           <t>ms288_15_h_196</t>
         </is>
       </c>
-      <c r="B200" s="7" t="inlineStr">
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ms288_15_h_196</t>
+        </is>
+      </c>
+      <c r="C200" s="7" t="inlineStr">
         <is>
           <t>Lettera di $ArataL al $Chastel</t>
         </is>
       </c>
-      <c r="C200" t="n">
-        <v>1845</v>
-      </c>
       <c r="D200" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E200" t="n">
         <v>10</v>
       </c>
-      <c r="E200" t="n">
+      <c r="F200" t="n">
         <v>31</v>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>Civitavecchia</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
+      <c r="H200" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
+      <c r="I200" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -5126,31 +6126,36 @@
           <t>ms288_15_h_197</t>
         </is>
       </c>
-      <c r="B201" s="7" t="inlineStr">
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ms288_15_h_197</t>
+        </is>
+      </c>
+      <c r="C201" s="7" t="inlineStr">
         <is>
           <t>Lettera di $ArataL al $Chastel</t>
         </is>
       </c>
-      <c r="C201" t="n">
-        <v>1845</v>
-      </c>
       <c r="D201" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E201" t="n">
         <v>10</v>
       </c>
-      <c r="E201" t="n">
+      <c r="F201" t="n">
         <v>23</v>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>Civitavecchia</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
+      <c r="I201" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -5162,31 +6167,36 @@
           <t>ms288_15_h_198</t>
         </is>
       </c>
-      <c r="B202" s="7" t="inlineStr">
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ms288_15_h_198</t>
+        </is>
+      </c>
+      <c r="C202" s="7" t="inlineStr">
         <is>
           <t>Lettera di $Ricci a $ArataL</t>
         </is>
       </c>
-      <c r="C202" t="n">
-        <v>1845</v>
-      </c>
       <c r="D202" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E202" t="n">
         <v>10</v>
       </c>
-      <c r="E202" t="n">
+      <c r="F202" t="n">
         <v>16</v>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>Civitavecchia</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
+      <c r="H202" t="inlineStr">
         <is>
           <t>$Ricci</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
+      <c r="I202" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
@@ -5198,31 +6208,36 @@
           <t>ms288_15_h_199</t>
         </is>
       </c>
-      <c r="B203" s="7" t="inlineStr">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ms288_15_h_198</t>
+        </is>
+      </c>
+      <c r="C203" s="7" t="inlineStr">
         <is>
           <t>Lettera di $Ricci a $ArataL</t>
         </is>
       </c>
-      <c r="C203" t="n">
-        <v>1845</v>
-      </c>
       <c r="D203" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E203" t="n">
         <v>10</v>
       </c>
-      <c r="E203" t="n">
+      <c r="F203" t="n">
         <v>16</v>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>Civitavecchia</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
+      <c r="H203" t="inlineStr">
         <is>
           <t>$Ricci</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
+      <c r="I203" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
@@ -5234,31 +6249,36 @@
           <t>ms288_15_h_200</t>
         </is>
       </c>
-      <c r="B204" s="7" t="inlineStr">
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ms288_15_h_200</t>
+        </is>
+      </c>
+      <c r="C204" s="7" t="inlineStr">
         <is>
           <t>Lettera di $Ricci a $ArataL</t>
         </is>
       </c>
-      <c r="C204" t="n">
-        <v>1845</v>
-      </c>
       <c r="D204" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E204" t="n">
         <v>10</v>
       </c>
-      <c r="E204" t="n">
+      <c r="F204" t="n">
         <v>29</v>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
+      <c r="H204" t="inlineStr">
         <is>
           <t>$Ricci</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
+      <c r="I204" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
@@ -5270,7 +6290,12 @@
           <t>ms288_15_h_201</t>
         </is>
       </c>
-      <c r="B205" s="7" t="inlineStr">
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ms288_15_h_201</t>
+        </is>
+      </c>
+      <c r="C205" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5282,7 +6307,12 @@
           <t>ms288_15_h_202</t>
         </is>
       </c>
-      <c r="B206" s="7" t="inlineStr">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ms288_15_h_201</t>
+        </is>
+      </c>
+      <c r="C206" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5294,7 +6324,12 @@
           <t>ms288_15_h_203</t>
         </is>
       </c>
-      <c r="B207" s="7" t="inlineStr">
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ms288_15_h_201</t>
+        </is>
+      </c>
+      <c r="C207" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5306,7 +6341,12 @@
           <t>ms288_15_h_204</t>
         </is>
       </c>
-      <c r="B208" s="3" t="inlineStr">
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ms288_15_h_201</t>
+        </is>
+      </c>
+      <c r="C208" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5318,26 +6358,31 @@
           <t>ms288_15_h_205</t>
         </is>
       </c>
-      <c r="B209" s="3" t="inlineStr">
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>ms288_15_h_205</t>
+        </is>
+      </c>
+      <c r="C209" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Chastel</t>
         </is>
       </c>
-      <c r="C209" t="n">
-        <v>1845</v>
-      </c>
       <c r="D209" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E209" t="n">
         <v>11</v>
       </c>
-      <c r="E209" t="n">
+      <c r="F209" t="n">
         <v>3</v>
       </c>
-      <c r="G209" t="inlineStr">
+      <c r="H209" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
+      <c r="I209" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -5349,31 +6394,36 @@
           <t>ms288_15_h_206</t>
         </is>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ms288_15_h_206</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>Estratti di notizie inviate a $ArataL e a $CasarettoJ</t>
         </is>
       </c>
-      <c r="C210" s="1" t="n">
-        <v>1845</v>
-      </c>
       <c r="D210" s="1" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E210" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="E210" s="1" t="n">
+      <c r="F210" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="F210" s="1" t="inlineStr">
+      <c r="G210" s="1" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
+      <c r="I210" t="inlineStr">
         <is>
           <t>$CasarettoJ; $ArataL</t>
         </is>
       </c>
-      <c r="J210" s="8" t="n"/>
+      <c r="K210" s="8" t="n"/>
     </row>
     <row r="211" ht="16" customFormat="1" customHeight="1" s="1">
       <c r="A211" s="1" t="inlineStr">
@@ -5381,31 +6431,36 @@
           <t>ms288_15_h_207</t>
         </is>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ms288_15_h_206</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Estratti di notizie inviate a $ArataL e a $CasarettoJ</t>
         </is>
       </c>
-      <c r="C211" s="1" t="n">
-        <v>1845</v>
-      </c>
       <c r="D211" s="1" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E211" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="E211" s="1" t="n">
+      <c r="F211" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="F211" s="1" t="inlineStr">
+      <c r="G211" s="1" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
+      <c r="I211" t="inlineStr">
         <is>
           <t>$CasarettoJ; $ArataL</t>
         </is>
       </c>
-      <c r="J211" s="8" t="n"/>
+      <c r="K211" s="8" t="n"/>
     </row>
     <row r="212" ht="16" customHeight="1" s="6">
       <c r="A212" t="inlineStr">
@@ -5413,7 +6468,12 @@
           <t>ms288_15_h_208</t>
         </is>
       </c>
-      <c r="B212" s="7" t="inlineStr">
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ms288_15_h_208</t>
+        </is>
+      </c>
+      <c r="C212" s="7" t="inlineStr">
         <is>
           <t>Relazione</t>
         </is>
@@ -5425,7 +6485,12 @@
           <t>ms288_15_h_209</t>
         </is>
       </c>
-      <c r="B213" s="7" t="inlineStr">
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ms288_15_h_208</t>
+        </is>
+      </c>
+      <c r="C213" s="7" t="inlineStr">
         <is>
           <t>Relazione</t>
         </is>
@@ -5437,31 +6502,36 @@
           <t>ms288_15_h_210</t>
         </is>
       </c>
-      <c r="B214" s="7" t="inlineStr">
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ms288_15_h_210</t>
+        </is>
+      </c>
+      <c r="C214" s="7" t="inlineStr">
         <is>
           <t>Lettera di $ArataL al $Chastel</t>
         </is>
       </c>
-      <c r="C214" t="n">
-        <v>1845</v>
-      </c>
       <c r="D214" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E214" t="n">
         <v>11</v>
       </c>
-      <c r="E214" t="n">
+      <c r="F214" t="n">
         <v>24</v>
       </c>
-      <c r="F214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>Civitavecchia</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
+      <c r="H214" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
+      <c r="I214" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -5473,7 +6543,12 @@
           <t>ms288_15_h_211</t>
         </is>
       </c>
-      <c r="B215" s="7" t="inlineStr">
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>ms288_15_h_211</t>
+        </is>
+      </c>
+      <c r="C215" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5485,7 +6560,12 @@
           <t>ms288_15_h_212</t>
         </is>
       </c>
-      <c r="B216" s="7" t="inlineStr">
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ms288_15_h_211</t>
+        </is>
+      </c>
+      <c r="C216" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5497,26 +6577,31 @@
           <t>ms288_15_h_213</t>
         </is>
       </c>
-      <c r="B217" s="7" t="inlineStr">
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>ms288_15_h_213</t>
+        </is>
+      </c>
+      <c r="C217" s="7" t="inlineStr">
         <is>
           <t>Lettera al $CasarettoJ</t>
         </is>
       </c>
-      <c r="C217" t="n">
-        <v>1845</v>
-      </c>
       <c r="D217" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E217" t="n">
         <v>12</v>
       </c>
-      <c r="E217" t="n">
+      <c r="F217" t="n">
         <v>5</v>
       </c>
-      <c r="F217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
+      <c r="I217" t="inlineStr">
         <is>
           <t>$CasarettoJ</t>
         </is>
@@ -5528,31 +6613,36 @@
           <t>ms288_15_h_214</t>
         </is>
       </c>
-      <c r="B218" s="7" t="inlineStr">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ms288_15_h_214</t>
+        </is>
+      </c>
+      <c r="C218" s="7" t="inlineStr">
         <is>
           <t>Lettera di $ArataL al $Chastel</t>
         </is>
       </c>
-      <c r="C218" t="n">
+      <c r="D218" t="n">
         <v>1846</v>
       </c>
-      <c r="D218" t="n">
+      <c r="E218" t="n">
         <v>2</v>
       </c>
-      <c r="E218" t="n">
+      <c r="F218" t="n">
         <v>14</v>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
+      <c r="H218" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
+      <c r="I218" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -5564,31 +6654,36 @@
           <t>ms288_15_h_215</t>
         </is>
       </c>
-      <c r="B219" s="7" t="inlineStr">
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ms288_15_h_215</t>
+        </is>
+      </c>
+      <c r="C219" s="7" t="inlineStr">
         <is>
           <t>Lettera di $ArataL al $Chastel</t>
         </is>
       </c>
-      <c r="C219" t="n">
-        <v>1845</v>
-      </c>
       <c r="D219" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E219" t="n">
         <v>11</v>
       </c>
-      <c r="E219" t="n">
+      <c r="F219" t="n">
         <v>22</v>
       </c>
-      <c r="F219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr">
+      <c r="H219" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
+      <c r="I219" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -5600,31 +6695,36 @@
           <t>ms288_15_h_216</t>
         </is>
       </c>
-      <c r="B220" s="3" t="inlineStr">
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ms288_15_h_216</t>
+        </is>
+      </c>
+      <c r="C220" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Chastel</t>
         </is>
       </c>
-      <c r="C220" t="n">
-        <v>1845</v>
-      </c>
       <c r="D220" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E220" t="n">
         <v>11</v>
       </c>
-      <c r="E220" t="n">
+      <c r="F220" t="n">
         <v>3</v>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr">
+      <c r="H220" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
+      <c r="I220" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -5636,26 +6736,31 @@
           <t>ms288_15_h_217</t>
         </is>
       </c>
-      <c r="B221" s="3" t="inlineStr">
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>ms288_15_h_217</t>
+        </is>
+      </c>
+      <c r="C221" s="3" t="inlineStr">
         <is>
           <t>Lettera al $Sarraz</t>
         </is>
       </c>
-      <c r="C221" t="n">
-        <v>1845</v>
-      </c>
       <c r="D221" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E221" t="n">
         <v>11</v>
       </c>
-      <c r="E221" t="n">
+      <c r="F221" t="n">
         <v>3</v>
       </c>
-      <c r="F221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
+      <c r="I221" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5667,17 +6772,22 @@
           <t>ms288_15_h_218</t>
         </is>
       </c>
-      <c r="B222" s="7" t="inlineStr">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>ms288_15_h_218</t>
+        </is>
+      </c>
+      <c r="C222" s="7" t="inlineStr">
         <is>
           <t>Lettera del $CasarettoJ al $Chastel</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
+      <c r="H222" t="inlineStr">
         <is>
           <t>$CasarettoJ</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
+      <c r="I222" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -5689,31 +6799,36 @@
           <t>ms288_15_h_219</t>
         </is>
       </c>
-      <c r="B223" s="7" t="inlineStr">
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>ms288_15_h_219</t>
+        </is>
+      </c>
+      <c r="C223" s="7" t="inlineStr">
         <is>
           <t>Circolare di $Gabrielli al $Serafini</t>
         </is>
       </c>
-      <c r="C223" t="n">
-        <v>1845</v>
-      </c>
       <c r="D223" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E223" t="n">
         <v>12</v>
       </c>
-      <c r="E223" t="n">
+      <c r="F223" t="n">
         <v>4</v>
       </c>
-      <c r="F223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>Fano</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr">
+      <c r="H223" t="inlineStr">
         <is>
           <t>$Gabrielli</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
+      <c r="I223" t="inlineStr">
         <is>
           <t>$Serafini</t>
         </is>
@@ -5725,7 +6840,12 @@
           <t>ms288_15_h_220</t>
         </is>
       </c>
-      <c r="B224" s="7" t="inlineStr">
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>ms288_15_h_220</t>
+        </is>
+      </c>
+      <c r="C224" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5737,7 +6857,12 @@
           <t>ms288_15_h_221</t>
         </is>
       </c>
-      <c r="B225" s="7" t="inlineStr">
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ms288_15_h_220</t>
+        </is>
+      </c>
+      <c r="C225" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5749,7 +6874,12 @@
           <t>ms288_15_h_222</t>
         </is>
       </c>
-      <c r="B226" s="7" t="inlineStr">
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>ms288_15_h_220</t>
+        </is>
+      </c>
+      <c r="C226" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5761,7 +6891,12 @@
           <t>ms288_15_h_223</t>
         </is>
       </c>
-      <c r="B227" s="3" t="inlineStr">
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>ms288_15_h_220</t>
+        </is>
+      </c>
+      <c r="C227" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5773,7 +6908,12 @@
           <t>ms288_15_h_224</t>
         </is>
       </c>
-      <c r="B228" s="7" t="inlineStr">
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>ms288_15_h_220</t>
+        </is>
+      </c>
+      <c r="C228" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5785,1151 +6925,1156 @@
           <t>ms288_15_h_225</t>
         </is>
       </c>
-      <c r="B229" s="7" t="inlineStr">
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>ms288_15_h_220</t>
+        </is>
+      </c>
+      <c r="C229" s="7" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
     </row>
     <row r="230" ht="16" customHeight="1" s="6">
-      <c r="B230" s="7" t="n"/>
+      <c r="C230" s="7" t="n"/>
     </row>
     <row r="231" ht="16" customHeight="1" s="6">
-      <c r="B231" s="3" t="n"/>
+      <c r="C231" s="3" t="n"/>
     </row>
     <row r="232" ht="16" customHeight="1" s="6">
-      <c r="B232" s="7" t="n"/>
+      <c r="C232" s="7" t="n"/>
     </row>
     <row r="233" ht="16" customHeight="1" s="6">
-      <c r="B233" s="7" t="n"/>
+      <c r="C233" s="7" t="n"/>
     </row>
     <row r="234" ht="16" customHeight="1" s="6">
-      <c r="B234" s="7" t="n"/>
+      <c r="C234" s="7" t="n"/>
     </row>
     <row r="235" ht="16" customHeight="1" s="6">
-      <c r="B235" s="7" t="n"/>
+      <c r="C235" s="7" t="n"/>
     </row>
     <row r="236" ht="16" customHeight="1" s="6">
-      <c r="B236" s="7" t="n"/>
+      <c r="C236" s="7" t="n"/>
     </row>
     <row r="237" ht="16" customHeight="1" s="6">
-      <c r="B237" s="7" t="n"/>
+      <c r="C237" s="7" t="n"/>
     </row>
     <row r="238" ht="16" customHeight="1" s="6">
-      <c r="B238" s="7" t="n"/>
+      <c r="C238" s="7" t="n"/>
     </row>
     <row r="239" ht="16" customHeight="1" s="6">
-      <c r="B239" s="7" t="n"/>
+      <c r="C239" s="7" t="n"/>
     </row>
     <row r="240" ht="16" customHeight="1" s="6">
-      <c r="B240" s="7" t="n"/>
+      <c r="C240" s="7" t="n"/>
     </row>
     <row r="241" ht="16" customHeight="1" s="6">
-      <c r="B241" s="7" t="n"/>
+      <c r="C241" s="7" t="n"/>
     </row>
     <row r="242" ht="16" customHeight="1" s="6">
-      <c r="B242" s="7" t="n"/>
+      <c r="C242" s="7" t="n"/>
     </row>
     <row r="243" ht="16" customHeight="1" s="6">
-      <c r="B243" s="7" t="n"/>
+      <c r="C243" s="7" t="n"/>
     </row>
     <row r="244" ht="16" customHeight="1" s="6">
-      <c r="B244" s="7" t="n"/>
+      <c r="C244" s="7" t="n"/>
     </row>
     <row r="245" ht="16" customHeight="1" s="6">
-      <c r="B245" s="7" t="n"/>
+      <c r="C245" s="7" t="n"/>
     </row>
     <row r="246" ht="16" customFormat="1" customHeight="1" s="9">
-      <c r="B246" s="5" t="n"/>
+      <c r="C246" s="5" t="n"/>
     </row>
     <row r="247" ht="16" customFormat="1" customHeight="1" s="9">
-      <c r="B247" s="7" t="n"/>
+      <c r="C247" s="7" t="n"/>
     </row>
     <row r="248" ht="16" customHeight="1" s="6">
-      <c r="B248" s="7" t="n"/>
+      <c r="C248" s="7" t="n"/>
     </row>
     <row r="249" ht="16" customHeight="1" s="6">
-      <c r="B249" s="7" t="n"/>
+      <c r="C249" s="7" t="n"/>
     </row>
     <row r="250" ht="16" customHeight="1" s="6">
-      <c r="B250" s="7" t="n"/>
+      <c r="C250" s="7" t="n"/>
     </row>
     <row r="251" ht="16" customHeight="1" s="6">
-      <c r="B251" s="7" t="n"/>
+      <c r="C251" s="7" t="n"/>
     </row>
     <row r="252" ht="16" customHeight="1" s="6">
-      <c r="B252" s="7" t="n"/>
+      <c r="C252" s="7" t="n"/>
     </row>
     <row r="253" ht="16" customHeight="1" s="6">
-      <c r="B253" s="7" t="n"/>
+      <c r="C253" s="7" t="n"/>
     </row>
     <row r="254" ht="16" customHeight="1" s="6">
-      <c r="B254" s="7" t="n"/>
+      <c r="C254" s="7" t="n"/>
     </row>
     <row r="255" ht="16" customHeight="1" s="6">
-      <c r="B255" s="7" t="n"/>
+      <c r="C255" s="7" t="n"/>
     </row>
     <row r="256" ht="16" customHeight="1" s="6">
-      <c r="B256" s="7" t="n"/>
+      <c r="C256" s="7" t="n"/>
     </row>
     <row r="257" ht="16" customHeight="1" s="6">
-      <c r="B257" s="7" t="n"/>
+      <c r="C257" s="7" t="n"/>
     </row>
     <row r="258" ht="16" customHeight="1" s="6">
-      <c r="B258" s="7" t="n"/>
+      <c r="C258" s="7" t="n"/>
     </row>
     <row r="259" ht="16" customHeight="1" s="6">
-      <c r="B259" s="7" t="n"/>
+      <c r="C259" s="7" t="n"/>
     </row>
     <row r="260" ht="16" customHeight="1" s="6">
-      <c r="B260" s="7" t="n"/>
+      <c r="C260" s="7" t="n"/>
     </row>
     <row r="261" ht="16" customHeight="1" s="6">
-      <c r="B261" s="7" t="n"/>
+      <c r="C261" s="7" t="n"/>
     </row>
     <row r="262" ht="16" customHeight="1" s="6">
-      <c r="B262" s="7" t="n"/>
+      <c r="C262" s="7" t="n"/>
     </row>
     <row r="263" ht="16" customHeight="1" s="6">
-      <c r="B263" s="7" t="n"/>
+      <c r="C263" s="7" t="n"/>
     </row>
     <row r="264" ht="16" customHeight="1" s="6">
-      <c r="B264" s="7" t="n"/>
+      <c r="C264" s="7" t="n"/>
     </row>
     <row r="265" ht="16" customHeight="1" s="6">
-      <c r="B265" s="7" t="n"/>
+      <c r="C265" s="7" t="n"/>
     </row>
     <row r="266" ht="16" customHeight="1" s="6">
-      <c r="B266" s="7" t="n"/>
+      <c r="C266" s="7" t="n"/>
     </row>
     <row r="267" ht="16" customHeight="1" s="6">
-      <c r="B267" s="7" t="n"/>
+      <c r="C267" s="7" t="n"/>
     </row>
     <row r="268" ht="16" customHeight="1" s="6">
-      <c r="B268" s="7" t="n"/>
+      <c r="C268" s="7" t="n"/>
     </row>
     <row r="269" ht="16" customHeight="1" s="6">
-      <c r="B269" s="7" t="n"/>
+      <c r="C269" s="7" t="n"/>
     </row>
     <row r="270" ht="16" customHeight="1" s="6">
-      <c r="B270" s="7" t="n"/>
+      <c r="C270" s="7" t="n"/>
     </row>
     <row r="271" ht="16" customHeight="1" s="6">
-      <c r="B271" s="7" t="n"/>
+      <c r="C271" s="7" t="n"/>
     </row>
     <row r="272" ht="16" customHeight="1" s="6">
-      <c r="B272" s="7" t="n"/>
+      <c r="C272" s="7" t="n"/>
     </row>
     <row r="273" ht="16" customHeight="1" s="6">
-      <c r="B273" s="7" t="n"/>
+      <c r="C273" s="7" t="n"/>
     </row>
     <row r="274" ht="16" customHeight="1" s="6">
-      <c r="B274" s="7" t="n"/>
+      <c r="C274" s="7" t="n"/>
     </row>
     <row r="275" ht="16" customHeight="1" s="6">
-      <c r="B275" s="7" t="n"/>
+      <c r="C275" s="7" t="n"/>
     </row>
     <row r="276" ht="16" customHeight="1" s="6">
-      <c r="B276" s="7" t="n"/>
+      <c r="C276" s="7" t="n"/>
     </row>
     <row r="277" ht="16" customHeight="1" s="6">
-      <c r="B277" s="7" t="n"/>
+      <c r="C277" s="7" t="n"/>
     </row>
     <row r="278" ht="16" customHeight="1" s="6">
-      <c r="B278" s="7" t="n"/>
+      <c r="C278" s="7" t="n"/>
     </row>
     <row r="279" ht="16" customHeight="1" s="6">
-      <c r="B279" s="7" t="n"/>
+      <c r="C279" s="7" t="n"/>
     </row>
     <row r="280" ht="16" customHeight="1" s="6">
-      <c r="B280" s="7" t="n"/>
+      <c r="C280" s="7" t="n"/>
     </row>
     <row r="281" ht="16" customHeight="1" s="6">
-      <c r="B281" s="7" t="n"/>
+      <c r="C281" s="7" t="n"/>
     </row>
     <row r="282" ht="16" customHeight="1" s="6">
-      <c r="B282" s="7" t="n"/>
+      <c r="C282" s="7" t="n"/>
     </row>
     <row r="283" ht="16" customHeight="1" s="6">
-      <c r="B283" s="7" t="n"/>
+      <c r="C283" s="7" t="n"/>
     </row>
     <row r="284" ht="16" customHeight="1" s="6">
-      <c r="B284" s="7" t="n"/>
+      <c r="C284" s="7" t="n"/>
     </row>
     <row r="285" ht="16" customHeight="1" s="6">
-      <c r="B285" s="7" t="n"/>
+      <c r="C285" s="7" t="n"/>
     </row>
     <row r="286" ht="16" customHeight="1" s="6">
-      <c r="B286" s="7" t="n"/>
+      <c r="C286" s="7" t="n"/>
     </row>
     <row r="287" ht="16" customHeight="1" s="6">
-      <c r="B287" s="7" t="n"/>
+      <c r="C287" s="7" t="n"/>
     </row>
     <row r="288" ht="16" customHeight="1" s="6">
-      <c r="B288" s="7" t="n"/>
+      <c r="C288" s="7" t="n"/>
     </row>
     <row r="289" ht="16" customHeight="1" s="6">
-      <c r="B289" s="7" t="n"/>
+      <c r="C289" s="7" t="n"/>
     </row>
     <row r="290" ht="16" customHeight="1" s="6">
-      <c r="B290" s="7" t="n"/>
+      <c r="C290" s="7" t="n"/>
     </row>
     <row r="291" ht="16" customHeight="1" s="6">
-      <c r="B291" s="7" t="n"/>
+      <c r="C291" s="7" t="n"/>
     </row>
     <row r="292" ht="16" customHeight="1" s="6">
-      <c r="B292" s="7" t="n"/>
+      <c r="C292" s="7" t="n"/>
     </row>
     <row r="293" ht="16" customHeight="1" s="6">
-      <c r="B293" s="7" t="n"/>
+      <c r="C293" s="7" t="n"/>
     </row>
     <row r="294" ht="16" customHeight="1" s="6">
-      <c r="B294" s="7" t="n"/>
+      <c r="C294" s="7" t="n"/>
     </row>
     <row r="295" ht="16" customHeight="1" s="6">
-      <c r="B295" s="7" t="n"/>
+      <c r="C295" s="7" t="n"/>
     </row>
     <row r="296" ht="16" customHeight="1" s="6">
-      <c r="B296" s="7" t="n"/>
+      <c r="C296" s="7" t="n"/>
     </row>
     <row r="297" ht="16" customHeight="1" s="6">
-      <c r="B297" s="7" t="n"/>
+      <c r="C297" s="7" t="n"/>
     </row>
     <row r="298" ht="16" customHeight="1" s="6">
-      <c r="B298" s="7" t="n"/>
+      <c r="C298" s="7" t="n"/>
     </row>
     <row r="299" ht="16" customHeight="1" s="6">
-      <c r="B299" s="7" t="n"/>
+      <c r="C299" s="7" t="n"/>
     </row>
     <row r="300" ht="16" customHeight="1" s="6">
-      <c r="B300" s="7" t="n"/>
+      <c r="C300" s="7" t="n"/>
     </row>
     <row r="301" ht="16" customHeight="1" s="6">
-      <c r="B301" s="7" t="n"/>
+      <c r="C301" s="7" t="n"/>
     </row>
     <row r="302" ht="16" customHeight="1" s="6">
-      <c r="B302" s="7" t="n"/>
+      <c r="C302" s="7" t="n"/>
     </row>
     <row r="303" ht="16" customHeight="1" s="6">
-      <c r="B303" s="7" t="n"/>
+      <c r="C303" s="7" t="n"/>
     </row>
     <row r="304" ht="16" customHeight="1" s="6">
-      <c r="B304" s="7" t="n"/>
+      <c r="C304" s="7" t="n"/>
     </row>
     <row r="305" ht="16" customHeight="1" s="6">
-      <c r="B305" s="7" t="n"/>
+      <c r="C305" s="7" t="n"/>
     </row>
     <row r="306" ht="16" customHeight="1" s="6">
-      <c r="B306" s="7" t="n"/>
+      <c r="C306" s="7" t="n"/>
     </row>
     <row r="307" ht="16" customHeight="1" s="6">
-      <c r="B307" s="7" t="n"/>
+      <c r="C307" s="7" t="n"/>
     </row>
     <row r="308" ht="16" customHeight="1" s="6">
-      <c r="B308" s="7" t="n"/>
+      <c r="C308" s="7" t="n"/>
     </row>
     <row r="309" ht="16" customHeight="1" s="6">
-      <c r="B309" s="7" t="n"/>
+      <c r="C309" s="7" t="n"/>
     </row>
     <row r="310" ht="16" customHeight="1" s="6">
-      <c r="B310" s="7" t="n"/>
+      <c r="C310" s="7" t="n"/>
     </row>
     <row r="311" ht="16" customHeight="1" s="6">
-      <c r="B311" s="7" t="n"/>
+      <c r="C311" s="7" t="n"/>
     </row>
     <row r="312" ht="16" customHeight="1" s="6">
-      <c r="B312" s="7" t="n"/>
+      <c r="C312" s="7" t="n"/>
     </row>
     <row r="313" ht="16" customHeight="1" s="6">
-      <c r="B313" s="7" t="n"/>
+      <c r="C313" s="7" t="n"/>
     </row>
     <row r="314" ht="16" customHeight="1" s="6">
-      <c r="B314" s="7" t="n"/>
+      <c r="C314" s="7" t="n"/>
     </row>
     <row r="315" ht="16" customHeight="1" s="6">
-      <c r="B315" s="7" t="n"/>
+      <c r="C315" s="7" t="n"/>
     </row>
     <row r="316" ht="16" customHeight="1" s="6">
-      <c r="B316" s="7" t="n"/>
+      <c r="C316" s="7" t="n"/>
     </row>
     <row r="317" ht="16" customHeight="1" s="6">
-      <c r="B317" s="7" t="n"/>
+      <c r="C317" s="7" t="n"/>
     </row>
     <row r="318" ht="16" customHeight="1" s="6">
-      <c r="B318" s="7" t="n"/>
+      <c r="C318" s="7" t="n"/>
     </row>
     <row r="319" ht="16" customHeight="1" s="6">
-      <c r="B319" s="7" t="n"/>
+      <c r="C319" s="7" t="n"/>
     </row>
     <row r="320" ht="16" customHeight="1" s="6">
-      <c r="B320" s="7" t="n"/>
+      <c r="C320" s="7" t="n"/>
     </row>
     <row r="321" ht="16" customHeight="1" s="6">
-      <c r="B321" s="7" t="n"/>
+      <c r="C321" s="7" t="n"/>
     </row>
     <row r="322" ht="16" customHeight="1" s="6">
-      <c r="B322" s="7" t="n"/>
+      <c r="C322" s="7" t="n"/>
     </row>
     <row r="323" ht="16" customHeight="1" s="6">
-      <c r="B323" s="7" t="n"/>
+      <c r="C323" s="7" t="n"/>
     </row>
     <row r="324" ht="16" customHeight="1" s="6">
-      <c r="B324" s="7" t="n"/>
+      <c r="C324" s="7" t="n"/>
     </row>
     <row r="325" ht="16" customHeight="1" s="6">
-      <c r="B325" s="7" t="n"/>
+      <c r="C325" s="7" t="n"/>
     </row>
     <row r="326" ht="16" customHeight="1" s="6">
-      <c r="B326" s="7" t="n"/>
+      <c r="C326" s="7" t="n"/>
     </row>
     <row r="327" ht="16" customHeight="1" s="6">
-      <c r="B327" s="7" t="n"/>
+      <c r="C327" s="7" t="n"/>
     </row>
     <row r="328" ht="16" customHeight="1" s="6">
-      <c r="B328" s="7" t="n"/>
+      <c r="C328" s="7" t="n"/>
     </row>
     <row r="329" ht="16" customHeight="1" s="6">
-      <c r="B329" s="7" t="n"/>
+      <c r="C329" s="7" t="n"/>
     </row>
     <row r="330" ht="16" customHeight="1" s="6">
-      <c r="B330" s="7" t="n"/>
+      <c r="C330" s="7" t="n"/>
     </row>
     <row r="331" ht="16" customHeight="1" s="6">
-      <c r="B331" s="7" t="n"/>
+      <c r="C331" s="7" t="n"/>
     </row>
     <row r="332" ht="16" customHeight="1" s="6">
-      <c r="B332" s="7" t="n"/>
+      <c r="C332" s="7" t="n"/>
     </row>
     <row r="333" ht="16" customHeight="1" s="6">
-      <c r="B333" s="7" t="n"/>
+      <c r="C333" s="7" t="n"/>
     </row>
     <row r="334" ht="16" customHeight="1" s="6">
-      <c r="B334" s="7" t="n"/>
+      <c r="C334" s="7" t="n"/>
     </row>
     <row r="335" ht="16" customHeight="1" s="6">
-      <c r="B335" s="7" t="n"/>
+      <c r="C335" s="7" t="n"/>
     </row>
     <row r="336" ht="16" customHeight="1" s="6">
-      <c r="B336" s="7" t="n"/>
+      <c r="C336" s="7" t="n"/>
     </row>
     <row r="337" ht="16" customHeight="1" s="6">
-      <c r="B337" s="7" t="n"/>
+      <c r="C337" s="7" t="n"/>
     </row>
     <row r="338" ht="16" customHeight="1" s="6">
-      <c r="B338" s="7" t="n"/>
+      <c r="C338" s="7" t="n"/>
     </row>
     <row r="339" ht="16" customHeight="1" s="6">
-      <c r="B339" s="7" t="n"/>
+      <c r="C339" s="7" t="n"/>
     </row>
     <row r="340" ht="16" customHeight="1" s="6">
-      <c r="B340" s="7" t="n"/>
+      <c r="C340" s="7" t="n"/>
     </row>
     <row r="341" ht="16" customHeight="1" s="6">
-      <c r="B341" s="7" t="n"/>
+      <c r="C341" s="7" t="n"/>
     </row>
     <row r="342" ht="16" customHeight="1" s="6">
-      <c r="B342" s="7" t="n"/>
+      <c r="C342" s="7" t="n"/>
     </row>
     <row r="343" ht="16" customHeight="1" s="6">
-      <c r="B343" s="7" t="n"/>
+      <c r="C343" s="7" t="n"/>
     </row>
     <row r="344" ht="16" customHeight="1" s="6">
-      <c r="B344" s="7" t="n"/>
+      <c r="C344" s="7" t="n"/>
     </row>
     <row r="345" ht="16" customHeight="1" s="6">
-      <c r="B345" s="7" t="n"/>
+      <c r="C345" s="7" t="n"/>
     </row>
     <row r="346" ht="16" customHeight="1" s="6">
-      <c r="B346" s="7" t="n"/>
+      <c r="C346" s="7" t="n"/>
     </row>
     <row r="347" ht="16" customHeight="1" s="6">
-      <c r="B347" s="7" t="n"/>
+      <c r="C347" s="7" t="n"/>
     </row>
     <row r="348" ht="16" customHeight="1" s="6">
-      <c r="B348" s="7" t="n"/>
+      <c r="C348" s="7" t="n"/>
     </row>
     <row r="349" ht="16" customHeight="1" s="6">
-      <c r="B349" s="7" t="n"/>
+      <c r="C349" s="7" t="n"/>
     </row>
     <row r="350" ht="16" customHeight="1" s="6">
-      <c r="B350" s="7" t="n"/>
+      <c r="C350" s="7" t="n"/>
     </row>
     <row r="351" ht="16" customHeight="1" s="6">
-      <c r="B351" s="7" t="n"/>
+      <c r="C351" s="7" t="n"/>
     </row>
     <row r="352" ht="16" customHeight="1" s="6">
-      <c r="B352" s="7" t="n"/>
+      <c r="C352" s="7" t="n"/>
     </row>
     <row r="353" ht="16" customHeight="1" s="6">
-      <c r="B353" s="7" t="n"/>
+      <c r="C353" s="7" t="n"/>
     </row>
     <row r="354" ht="16" customHeight="1" s="6">
-      <c r="B354" s="7" t="n"/>
+      <c r="C354" s="7" t="n"/>
     </row>
     <row r="355" ht="16" customHeight="1" s="6">
-      <c r="B355" s="7" t="n"/>
+      <c r="C355" s="7" t="n"/>
     </row>
     <row r="356" ht="16" customHeight="1" s="6">
-      <c r="B356" s="7" t="n"/>
+      <c r="C356" s="7" t="n"/>
     </row>
     <row r="357" ht="16" customHeight="1" s="6">
-      <c r="B357" s="7" t="n"/>
+      <c r="C357" s="7" t="n"/>
     </row>
     <row r="358" ht="16" customHeight="1" s="6">
-      <c r="B358" s="7" t="n"/>
+      <c r="C358" s="7" t="n"/>
     </row>
     <row r="359" ht="16" customHeight="1" s="6">
-      <c r="B359" s="7" t="n"/>
+      <c r="C359" s="7" t="n"/>
     </row>
     <row r="360" ht="16" customHeight="1" s="6">
-      <c r="B360" s="7" t="n"/>
+      <c r="C360" s="7" t="n"/>
     </row>
     <row r="361" ht="16" customHeight="1" s="6">
-      <c r="B361" s="7" t="n"/>
+      <c r="C361" s="7" t="n"/>
     </row>
     <row r="362" ht="16" customHeight="1" s="6">
-      <c r="B362" s="7" t="n"/>
+      <c r="C362" s="7" t="n"/>
     </row>
     <row r="363" ht="16" customHeight="1" s="6">
-      <c r="B363" s="7" t="n"/>
+      <c r="C363" s="7" t="n"/>
     </row>
     <row r="364" ht="16" customHeight="1" s="6">
-      <c r="B364" s="7" t="n"/>
+      <c r="C364" s="7" t="n"/>
     </row>
     <row r="365" ht="16" customHeight="1" s="6">
-      <c r="B365" s="7" t="n"/>
+      <c r="C365" s="7" t="n"/>
     </row>
     <row r="366" ht="16" customHeight="1" s="6">
-      <c r="B366" s="7" t="n"/>
+      <c r="C366" s="7" t="n"/>
     </row>
     <row r="367" ht="16" customHeight="1" s="6">
-      <c r="B367" s="7" t="n"/>
+      <c r="C367" s="7" t="n"/>
     </row>
     <row r="368" ht="16" customHeight="1" s="6">
-      <c r="B368" s="7" t="n"/>
+      <c r="C368" s="7" t="n"/>
     </row>
     <row r="369" ht="16" customHeight="1" s="6">
-      <c r="B369" s="7" t="n"/>
+      <c r="C369" s="7" t="n"/>
     </row>
     <row r="370" ht="16" customHeight="1" s="6">
-      <c r="B370" s="7" t="n"/>
+      <c r="C370" s="7" t="n"/>
     </row>
     <row r="371" ht="16" customHeight="1" s="6">
-      <c r="B371" s="7" t="n"/>
+      <c r="C371" s="7" t="n"/>
     </row>
     <row r="372" ht="16" customHeight="1" s="6">
-      <c r="B372" s="7" t="n"/>
+      <c r="C372" s="7" t="n"/>
     </row>
     <row r="373" ht="16" customHeight="1" s="6">
-      <c r="B373" s="7" t="n"/>
+      <c r="C373" s="7" t="n"/>
     </row>
     <row r="374" ht="16" customHeight="1" s="6">
-      <c r="B374" s="7" t="n"/>
+      <c r="C374" s="7" t="n"/>
     </row>
     <row r="375" ht="16" customHeight="1" s="6">
-      <c r="B375" s="7" t="n"/>
+      <c r="C375" s="7" t="n"/>
     </row>
     <row r="376" ht="16" customHeight="1" s="6">
-      <c r="B376" s="7" t="n"/>
+      <c r="C376" s="7" t="n"/>
     </row>
     <row r="377" ht="16" customHeight="1" s="6">
-      <c r="B377" s="7" t="n"/>
+      <c r="C377" s="7" t="n"/>
     </row>
     <row r="378" ht="16" customHeight="1" s="6">
-      <c r="B378" s="7" t="n"/>
+      <c r="C378" s="7" t="n"/>
     </row>
     <row r="379" ht="16" customHeight="1" s="6">
-      <c r="B379" s="7" t="n"/>
+      <c r="C379" s="7" t="n"/>
     </row>
     <row r="380" ht="16" customHeight="1" s="6">
-      <c r="B380" s="7" t="n"/>
+      <c r="C380" s="7" t="n"/>
     </row>
     <row r="381" ht="16" customHeight="1" s="6">
-      <c r="B381" s="7" t="n"/>
+      <c r="C381" s="7" t="n"/>
     </row>
     <row r="382" ht="16" customHeight="1" s="6">
-      <c r="B382" s="7" t="n"/>
+      <c r="C382" s="7" t="n"/>
     </row>
     <row r="383" ht="16" customHeight="1" s="6">
-      <c r="B383" s="7" t="n"/>
+      <c r="C383" s="7" t="n"/>
     </row>
     <row r="384" ht="16" customHeight="1" s="6">
-      <c r="B384" s="7" t="n"/>
+      <c r="C384" s="7" t="n"/>
     </row>
     <row r="385" ht="16" customHeight="1" s="6">
-      <c r="B385" s="7" t="n"/>
+      <c r="C385" s="7" t="n"/>
     </row>
     <row r="386" ht="16" customHeight="1" s="6">
-      <c r="B386" s="7" t="n"/>
+      <c r="C386" s="7" t="n"/>
     </row>
     <row r="387" ht="16" customHeight="1" s="6">
-      <c r="B387" s="7" t="n"/>
+      <c r="C387" s="7" t="n"/>
     </row>
     <row r="388" ht="16" customHeight="1" s="6">
-      <c r="B388" s="7" t="n"/>
+      <c r="C388" s="7" t="n"/>
     </row>
     <row r="389" ht="16" customHeight="1" s="6">
-      <c r="B389" s="7" t="n"/>
+      <c r="C389" s="7" t="n"/>
     </row>
     <row r="390" ht="16" customHeight="1" s="6">
-      <c r="B390" s="7" t="n"/>
+      <c r="C390" s="7" t="n"/>
     </row>
     <row r="391" ht="16" customHeight="1" s="6">
-      <c r="B391" s="7" t="n"/>
+      <c r="C391" s="7" t="n"/>
     </row>
     <row r="392" ht="16" customHeight="1" s="6">
-      <c r="B392" s="7" t="n"/>
+      <c r="C392" s="7" t="n"/>
     </row>
     <row r="393" ht="16" customHeight="1" s="6">
-      <c r="B393" s="7" t="n"/>
+      <c r="C393" s="7" t="n"/>
     </row>
     <row r="394" ht="16" customFormat="1" customHeight="1" s="9">
-      <c r="B394" s="5" t="n"/>
+      <c r="C394" s="5" t="n"/>
     </row>
     <row r="395" ht="16" customHeight="1" s="6">
-      <c r="B395" s="7" t="n"/>
+      <c r="C395" s="7" t="n"/>
     </row>
     <row r="396" ht="16" customHeight="1" s="6">
-      <c r="B396" s="7" t="n"/>
+      <c r="C396" s="7" t="n"/>
     </row>
     <row r="397" ht="16" customHeight="1" s="6">
-      <c r="B397" s="7" t="n"/>
+      <c r="C397" s="7" t="n"/>
     </row>
     <row r="398" ht="16" customHeight="1" s="6">
-      <c r="B398" s="7" t="n"/>
+      <c r="C398" s="7" t="n"/>
     </row>
     <row r="399" ht="16" customHeight="1" s="6">
-      <c r="B399" s="7" t="n"/>
+      <c r="C399" s="7" t="n"/>
     </row>
     <row r="400" ht="16" customHeight="1" s="6">
-      <c r="B400" s="7" t="n"/>
+      <c r="C400" s="7" t="n"/>
     </row>
     <row r="401" ht="16" customHeight="1" s="6">
-      <c r="B401" s="7" t="n"/>
+      <c r="C401" s="7" t="n"/>
     </row>
     <row r="402" ht="16" customHeight="1" s="6">
-      <c r="B402" s="7" t="n"/>
+      <c r="C402" s="7" t="n"/>
     </row>
     <row r="403" ht="16" customHeight="1" s="6">
-      <c r="B403" s="7" t="n"/>
+      <c r="C403" s="7" t="n"/>
     </row>
     <row r="404" ht="16" customHeight="1" s="6">
-      <c r="B404" s="7" t="n"/>
+      <c r="C404" s="7" t="n"/>
     </row>
     <row r="405" ht="16" customHeight="1" s="6">
-      <c r="B405" s="7" t="n"/>
+      <c r="C405" s="7" t="n"/>
     </row>
     <row r="406" ht="16" customHeight="1" s="6">
-      <c r="B406" s="7" t="n"/>
+      <c r="C406" s="7" t="n"/>
     </row>
     <row r="407" ht="16" customHeight="1" s="6">
-      <c r="B407" s="7" t="n"/>
+      <c r="C407" s="7" t="n"/>
     </row>
     <row r="408" ht="16" customHeight="1" s="6">
-      <c r="B408" s="7" t="n"/>
+      <c r="C408" s="7" t="n"/>
     </row>
     <row r="409" ht="16" customHeight="1" s="6">
-      <c r="B409" s="7" t="n"/>
+      <c r="C409" s="7" t="n"/>
     </row>
     <row r="410" ht="16" customHeight="1" s="6">
-      <c r="B410" s="7" t="n"/>
+      <c r="C410" s="7" t="n"/>
     </row>
     <row r="411" ht="16" customHeight="1" s="6">
-      <c r="B411" s="7" t="n"/>
+      <c r="C411" s="7" t="n"/>
     </row>
     <row r="412" ht="16" customHeight="1" s="6">
-      <c r="B412" s="7" t="n"/>
+      <c r="C412" s="7" t="n"/>
     </row>
     <row r="413" ht="16" customHeight="1" s="6">
-      <c r="B413" s="7" t="n"/>
+      <c r="C413" s="7" t="n"/>
     </row>
     <row r="414" ht="16" customHeight="1" s="6">
-      <c r="B414" s="7" t="n"/>
+      <c r="C414" s="7" t="n"/>
     </row>
     <row r="415" ht="16" customHeight="1" s="6">
-      <c r="B415" s="7" t="n"/>
+      <c r="C415" s="7" t="n"/>
     </row>
     <row r="416" ht="16" customHeight="1" s="6">
-      <c r="B416" s="7" t="n"/>
+      <c r="C416" s="7" t="n"/>
     </row>
     <row r="417" ht="16" customHeight="1" s="6">
-      <c r="B417" s="7" t="n"/>
+      <c r="C417" s="7" t="n"/>
     </row>
     <row r="418" ht="16" customHeight="1" s="6">
-      <c r="B418" s="7" t="n"/>
+      <c r="C418" s="7" t="n"/>
     </row>
     <row r="419" ht="16" customHeight="1" s="6">
-      <c r="B419" s="7" t="n"/>
+      <c r="C419" s="7" t="n"/>
     </row>
     <row r="420" ht="16" customHeight="1" s="6">
-      <c r="B420" s="5" t="n"/>
+      <c r="C420" s="5" t="n"/>
     </row>
     <row r="421" ht="16" customHeight="1" s="6">
-      <c r="B421" s="7" t="n"/>
+      <c r="C421" s="7" t="n"/>
     </row>
     <row r="422" ht="16" customHeight="1" s="6">
-      <c r="B422" s="7" t="n"/>
+      <c r="C422" s="7" t="n"/>
     </row>
     <row r="423" ht="16" customHeight="1" s="6">
-      <c r="B423" s="7" t="n"/>
+      <c r="C423" s="7" t="n"/>
     </row>
     <row r="424" ht="16" customHeight="1" s="6">
-      <c r="B424" s="7" t="n"/>
+      <c r="C424" s="7" t="n"/>
     </row>
     <row r="425" ht="16" customHeight="1" s="6">
-      <c r="B425" s="7" t="n"/>
+      <c r="C425" s="7" t="n"/>
     </row>
     <row r="426" ht="16" customHeight="1" s="6">
-      <c r="B426" s="7" t="n"/>
+      <c r="C426" s="7" t="n"/>
     </row>
     <row r="427" ht="16" customHeight="1" s="6">
-      <c r="B427" s="7" t="n"/>
+      <c r="C427" s="7" t="n"/>
     </row>
     <row r="428" ht="16" customHeight="1" s="6">
-      <c r="B428" s="7" t="n"/>
+      <c r="C428" s="7" t="n"/>
     </row>
     <row r="429" ht="16" customHeight="1" s="6">
-      <c r="B429" s="7" t="n"/>
+      <c r="C429" s="7" t="n"/>
     </row>
     <row r="430" ht="16" customHeight="1" s="6">
-      <c r="B430" s="7" t="n"/>
+      <c r="C430" s="7" t="n"/>
     </row>
     <row r="431" ht="16" customHeight="1" s="6">
-      <c r="B431" s="7" t="n"/>
+      <c r="C431" s="7" t="n"/>
     </row>
     <row r="432" ht="16" customHeight="1" s="6">
-      <c r="B432" s="7" t="n"/>
+      <c r="C432" s="7" t="n"/>
     </row>
     <row r="433" ht="16" customHeight="1" s="6">
-      <c r="B433" s="7" t="n"/>
+      <c r="C433" s="7" t="n"/>
     </row>
     <row r="434" ht="16" customHeight="1" s="6">
-      <c r="B434" s="5" t="n"/>
+      <c r="C434" s="5" t="n"/>
     </row>
     <row r="435" ht="16" customHeight="1" s="6">
-      <c r="B435" s="5" t="n"/>
+      <c r="C435" s="5" t="n"/>
     </row>
     <row r="436" ht="16" customHeight="1" s="6">
-      <c r="B436" s="7" t="n"/>
+      <c r="C436" s="7" t="n"/>
     </row>
     <row r="437" ht="16" customHeight="1" s="6">
-      <c r="B437" s="7" t="n"/>
+      <c r="C437" s="7" t="n"/>
     </row>
     <row r="438" ht="16" customHeight="1" s="6">
-      <c r="B438" s="7" t="n"/>
+      <c r="C438" s="7" t="n"/>
     </row>
     <row r="439" ht="16" customHeight="1" s="6">
-      <c r="B439" s="7" t="n"/>
+      <c r="C439" s="7" t="n"/>
     </row>
     <row r="440" ht="16" customHeight="1" s="6">
-      <c r="B440" s="7" t="n"/>
+      <c r="C440" s="7" t="n"/>
     </row>
     <row r="441" ht="16" customHeight="1" s="6">
-      <c r="B441" s="7" t="n"/>
+      <c r="C441" s="7" t="n"/>
     </row>
     <row r="442" ht="16" customHeight="1" s="6">
-      <c r="B442" s="7" t="n"/>
+      <c r="C442" s="7" t="n"/>
     </row>
     <row r="443" ht="16" customHeight="1" s="6">
-      <c r="B443" s="7" t="n"/>
+      <c r="C443" s="7" t="n"/>
     </row>
     <row r="444" ht="16" customHeight="1" s="6">
-      <c r="B444" s="7" t="n"/>
+      <c r="C444" s="7" t="n"/>
     </row>
     <row r="445" ht="16" customHeight="1" s="6">
-      <c r="B445" s="7" t="n"/>
+      <c r="C445" s="7" t="n"/>
     </row>
     <row r="446" ht="16" customHeight="1" s="6">
-      <c r="B446" s="7" t="n"/>
+      <c r="C446" s="7" t="n"/>
     </row>
     <row r="447" ht="16" customHeight="1" s="6">
-      <c r="B447" s="7" t="n"/>
+      <c r="C447" s="7" t="n"/>
     </row>
     <row r="448" ht="16" customHeight="1" s="6">
-      <c r="B448" s="7" t="n"/>
+      <c r="C448" s="7" t="n"/>
     </row>
     <row r="449" ht="16" customHeight="1" s="6">
-      <c r="B449" s="7" t="n"/>
+      <c r="C449" s="7" t="n"/>
     </row>
     <row r="450" ht="16" customHeight="1" s="6">
-      <c r="B450" s="7" t="n"/>
+      <c r="C450" s="7" t="n"/>
     </row>
     <row r="451" ht="16" customHeight="1" s="6">
-      <c r="B451" s="7" t="n"/>
+      <c r="C451" s="7" t="n"/>
     </row>
     <row r="452" ht="16" customHeight="1" s="6">
-      <c r="B452" s="5" t="n"/>
+      <c r="C452" s="5" t="n"/>
     </row>
     <row r="453" ht="16" customHeight="1" s="6">
-      <c r="B453" s="5" t="n"/>
+      <c r="C453" s="5" t="n"/>
     </row>
     <row r="454" ht="16" customHeight="1" s="6">
-      <c r="B454" s="7" t="n"/>
+      <c r="C454" s="7" t="n"/>
     </row>
     <row r="455" ht="16" customHeight="1" s="6">
-      <c r="B455" s="7" t="n"/>
+      <c r="C455" s="7" t="n"/>
     </row>
     <row r="456" ht="16" customHeight="1" s="6">
-      <c r="B456" s="7" t="n"/>
+      <c r="C456" s="7" t="n"/>
     </row>
     <row r="457" ht="16" customHeight="1" s="6">
-      <c r="B457" s="7" t="n"/>
+      <c r="C457" s="7" t="n"/>
     </row>
     <row r="458" ht="16" customHeight="1" s="6">
-      <c r="B458" s="7" t="n"/>
+      <c r="C458" s="7" t="n"/>
     </row>
     <row r="459" ht="16" customHeight="1" s="6">
-      <c r="B459" s="7" t="n"/>
+      <c r="C459" s="7" t="n"/>
     </row>
     <row r="460" ht="16" customHeight="1" s="6">
-      <c r="B460" s="7" t="n"/>
+      <c r="C460" s="7" t="n"/>
     </row>
     <row r="461" ht="16" customHeight="1" s="6">
-      <c r="B461" s="7" t="n"/>
+      <c r="C461" s="7" t="n"/>
     </row>
     <row r="462" ht="16" customHeight="1" s="6">
-      <c r="B462" s="7" t="n"/>
+      <c r="C462" s="7" t="n"/>
     </row>
     <row r="463" ht="16" customHeight="1" s="6">
-      <c r="B463" s="7" t="n"/>
+      <c r="C463" s="7" t="n"/>
     </row>
     <row r="464" ht="16" customHeight="1" s="6">
-      <c r="B464" s="7" t="n"/>
+      <c r="C464" s="7" t="n"/>
     </row>
     <row r="465" ht="16" customHeight="1" s="6">
-      <c r="B465" s="7" t="n"/>
+      <c r="C465" s="7" t="n"/>
     </row>
     <row r="466" ht="16" customHeight="1" s="6">
-      <c r="B466" s="7" t="n"/>
+      <c r="C466" s="7" t="n"/>
     </row>
     <row r="467" ht="16" customHeight="1" s="6">
-      <c r="B467" s="7" t="n"/>
+      <c r="C467" s="7" t="n"/>
     </row>
     <row r="468" ht="16" customHeight="1" s="6">
-      <c r="B468" s="7" t="n"/>
+      <c r="C468" s="7" t="n"/>
     </row>
     <row r="469" ht="16" customHeight="1" s="6">
-      <c r="B469" s="7" t="n"/>
+      <c r="C469" s="7" t="n"/>
     </row>
     <row r="470" ht="16" customHeight="1" s="6">
-      <c r="B470" s="7" t="n"/>
+      <c r="C470" s="7" t="n"/>
     </row>
     <row r="471" ht="16" customHeight="1" s="6">
-      <c r="B471" s="7" t="n"/>
+      <c r="C471" s="7" t="n"/>
     </row>
     <row r="472" ht="16" customHeight="1" s="6">
-      <c r="B472" s="7" t="n"/>
+      <c r="C472" s="7" t="n"/>
     </row>
     <row r="473" ht="16" customHeight="1" s="6">
-      <c r="B473" s="5" t="n"/>
+      <c r="C473" s="5" t="n"/>
     </row>
     <row r="474" ht="16" customHeight="1" s="6">
-      <c r="B474" s="7" t="n"/>
+      <c r="C474" s="7" t="n"/>
     </row>
     <row r="475" ht="16" customHeight="1" s="6">
-      <c r="B475" s="7" t="n"/>
+      <c r="C475" s="7" t="n"/>
     </row>
     <row r="476" ht="16" customHeight="1" s="6">
-      <c r="B476" s="7" t="n"/>
+      <c r="C476" s="7" t="n"/>
     </row>
     <row r="477" ht="16" customHeight="1" s="6">
-      <c r="B477" s="7" t="n"/>
+      <c r="C477" s="7" t="n"/>
     </row>
     <row r="478" ht="16" customHeight="1" s="6">
-      <c r="B478" s="7" t="n"/>
+      <c r="C478" s="7" t="n"/>
     </row>
     <row r="479" ht="16" customHeight="1" s="6">
-      <c r="B479" s="7" t="n"/>
+      <c r="C479" s="7" t="n"/>
     </row>
     <row r="480" ht="16" customHeight="1" s="6">
-      <c r="B480" s="7" t="n"/>
+      <c r="C480" s="7" t="n"/>
     </row>
     <row r="481" ht="16" customHeight="1" s="6">
-      <c r="B481" s="7" t="n"/>
+      <c r="C481" s="7" t="n"/>
     </row>
     <row r="482" ht="16" customHeight="1" s="6">
-      <c r="B482" s="7" t="n"/>
+      <c r="C482" s="7" t="n"/>
     </row>
     <row r="483" ht="16" customHeight="1" s="6">
-      <c r="B483" s="7" t="n"/>
+      <c r="C483" s="7" t="n"/>
     </row>
     <row r="484" ht="16" customHeight="1" s="6">
-      <c r="B484" s="7" t="n"/>
+      <c r="C484" s="7" t="n"/>
     </row>
     <row r="485" ht="16" customHeight="1" s="6">
-      <c r="B485" s="7" t="n"/>
+      <c r="C485" s="7" t="n"/>
     </row>
     <row r="486" ht="16" customHeight="1" s="6">
-      <c r="B486" s="7" t="n"/>
+      <c r="C486" s="7" t="n"/>
     </row>
     <row r="487" ht="16" customHeight="1" s="6">
-      <c r="B487" s="7" t="n"/>
+      <c r="C487" s="7" t="n"/>
     </row>
     <row r="488" ht="16" customHeight="1" s="6">
-      <c r="B488" s="7" t="n"/>
+      <c r="C488" s="7" t="n"/>
     </row>
     <row r="489" ht="16" customHeight="1" s="6">
-      <c r="B489" s="7" t="n"/>
+      <c r="C489" s="7" t="n"/>
     </row>
     <row r="490" ht="16" customHeight="1" s="6">
-      <c r="B490" s="7" t="n"/>
+      <c r="C490" s="7" t="n"/>
     </row>
     <row r="491" ht="16" customHeight="1" s="6">
-      <c r="B491" s="5" t="n"/>
+      <c r="C491" s="5" t="n"/>
     </row>
     <row r="492" ht="16" customHeight="1" s="6">
-      <c r="B492" s="7" t="n"/>
+      <c r="C492" s="7" t="n"/>
     </row>
     <row r="493" ht="16" customHeight="1" s="6">
-      <c r="B493" s="7" t="n"/>
+      <c r="C493" s="7" t="n"/>
     </row>
     <row r="494" ht="16" customHeight="1" s="6">
-      <c r="B494" s="7" t="n"/>
+      <c r="C494" s="7" t="n"/>
     </row>
     <row r="495" ht="16" customHeight="1" s="6">
-      <c r="B495" s="7" t="n"/>
+      <c r="C495" s="7" t="n"/>
     </row>
     <row r="496" ht="16" customHeight="1" s="6">
-      <c r="B496" s="7" t="n"/>
+      <c r="C496" s="7" t="n"/>
     </row>
     <row r="497" ht="16" customHeight="1" s="6">
-      <c r="B497" s="7" t="n"/>
+      <c r="C497" s="7" t="n"/>
     </row>
     <row r="498" ht="16" customHeight="1" s="6">
-      <c r="B498" s="7" t="n"/>
+      <c r="C498" s="7" t="n"/>
     </row>
     <row r="499" ht="16" customHeight="1" s="6">
-      <c r="B499" s="7" t="n"/>
+      <c r="C499" s="7" t="n"/>
     </row>
     <row r="500" ht="16" customHeight="1" s="6">
-      <c r="B500" s="7" t="n"/>
+      <c r="C500" s="7" t="n"/>
     </row>
     <row r="501" ht="16" customHeight="1" s="6">
-      <c r="B501" s="5" t="n"/>
+      <c r="C501" s="5" t="n"/>
     </row>
     <row r="502" ht="16" customHeight="1" s="6">
-      <c r="B502" s="5" t="n"/>
+      <c r="C502" s="5" t="n"/>
     </row>
     <row r="503" ht="16" customHeight="1" s="6">
-      <c r="B503" s="5" t="n"/>
+      <c r="C503" s="5" t="n"/>
     </row>
     <row r="504" ht="16" customHeight="1" s="6">
-      <c r="B504" s="7" t="n"/>
+      <c r="C504" s="7" t="n"/>
     </row>
     <row r="505" ht="16" customHeight="1" s="6">
-      <c r="B505" s="7" t="n"/>
+      <c r="C505" s="7" t="n"/>
     </row>
     <row r="506" ht="16" customHeight="1" s="6">
-      <c r="B506" s="7" t="n"/>
+      <c r="C506" s="7" t="n"/>
     </row>
     <row r="507" ht="16" customHeight="1" s="6">
-      <c r="B507" s="5" t="n"/>
+      <c r="C507" s="5" t="n"/>
     </row>
     <row r="508" ht="16" customHeight="1" s="6">
-      <c r="B508" s="5" t="n"/>
+      <c r="C508" s="5" t="n"/>
     </row>
     <row r="509" ht="16" customHeight="1" s="6">
-      <c r="B509" s="7" t="n"/>
+      <c r="C509" s="7" t="n"/>
     </row>
     <row r="510" ht="16" customHeight="1" s="6">
-      <c r="B510" s="7" t="n"/>
+      <c r="C510" s="7" t="n"/>
     </row>
     <row r="511" ht="16" customHeight="1" s="6">
-      <c r="B511" s="7" t="n"/>
+      <c r="C511" s="7" t="n"/>
     </row>
     <row r="512" ht="16" customHeight="1" s="6">
-      <c r="B512" s="7" t="n"/>
+      <c r="C512" s="7" t="n"/>
     </row>
     <row r="513" ht="16" customHeight="1" s="6">
-      <c r="B513" s="7" t="n"/>
+      <c r="C513" s="7" t="n"/>
     </row>
     <row r="514" ht="16" customHeight="1" s="6">
-      <c r="B514" s="7" t="n"/>
+      <c r="C514" s="7" t="n"/>
     </row>
     <row r="515" ht="16" customHeight="1" s="6">
-      <c r="B515" s="7" t="n"/>
+      <c r="C515" s="7" t="n"/>
     </row>
     <row r="516" ht="16" customHeight="1" s="6">
-      <c r="B516" s="7" t="n"/>
+      <c r="C516" s="7" t="n"/>
     </row>
     <row r="517" ht="16" customHeight="1" s="6">
-      <c r="B517" s="5" t="n"/>
+      <c r="C517" s="5" t="n"/>
     </row>
     <row r="518" ht="16" customHeight="1" s="6">
-      <c r="B518" s="5" t="n"/>
+      <c r="C518" s="5" t="n"/>
     </row>
     <row r="519" ht="16" customHeight="1" s="6">
-      <c r="B519" s="7" t="n"/>
+      <c r="C519" s="7" t="n"/>
     </row>
     <row r="520" ht="16" customHeight="1" s="6">
-      <c r="B520" s="7" t="n"/>
+      <c r="C520" s="7" t="n"/>
     </row>
     <row r="521" ht="16" customHeight="1" s="6">
-      <c r="B521" s="7" t="n"/>
+      <c r="C521" s="7" t="n"/>
     </row>
     <row r="522" ht="16" customHeight="1" s="6">
-      <c r="B522" s="7" t="n"/>
+      <c r="C522" s="7" t="n"/>
     </row>
     <row r="523" ht="16" customHeight="1" s="6">
-      <c r="B523" s="7" t="n"/>
+      <c r="C523" s="7" t="n"/>
     </row>
     <row r="524" ht="16" customHeight="1" s="6">
-      <c r="B524" s="7" t="n"/>
+      <c r="C524" s="7" t="n"/>
     </row>
     <row r="525" ht="16" customHeight="1" s="6">
-      <c r="B525" s="7" t="n"/>
+      <c r="C525" s="7" t="n"/>
     </row>
     <row r="526" ht="16" customHeight="1" s="6">
-      <c r="B526" s="7" t="n"/>
+      <c r="C526" s="7" t="n"/>
     </row>
     <row r="527" ht="16" customHeight="1" s="6">
-      <c r="B527" s="7" t="n"/>
+      <c r="C527" s="7" t="n"/>
     </row>
     <row r="528" ht="16" customHeight="1" s="6">
-      <c r="B528" s="5" t="n"/>
+      <c r="C528" s="5" t="n"/>
     </row>
     <row r="529" ht="16" customHeight="1" s="6">
-      <c r="B529" s="5" t="n"/>
+      <c r="C529" s="5" t="n"/>
     </row>
     <row r="530" ht="16" customHeight="1" s="6">
-      <c r="B530" s="5" t="n"/>
+      <c r="C530" s="5" t="n"/>
     </row>
     <row r="531" ht="16" customHeight="1" s="6">
-      <c r="B531" s="5" t="n"/>
+      <c r="C531" s="5" t="n"/>
     </row>
     <row r="532" ht="16" customHeight="1" s="6">
-      <c r="B532" s="7" t="n"/>
+      <c r="C532" s="7" t="n"/>
     </row>
     <row r="533" ht="16" customHeight="1" s="6">
-      <c r="B533" s="7" t="n"/>
+      <c r="C533" s="7" t="n"/>
     </row>
     <row r="534" ht="16" customHeight="1" s="6">
-      <c r="B534" s="7" t="n"/>
+      <c r="C534" s="7" t="n"/>
     </row>
     <row r="535" ht="16" customHeight="1" s="6">
-      <c r="B535" s="7" t="n"/>
+      <c r="C535" s="7" t="n"/>
     </row>
     <row r="536" ht="16" customHeight="1" s="6">
-      <c r="B536" s="5" t="n"/>
+      <c r="C536" s="5" t="n"/>
     </row>
     <row r="537" ht="16" customHeight="1" s="6">
-      <c r="B537" s="5" t="n"/>
+      <c r="C537" s="5" t="n"/>
     </row>
     <row r="538" ht="16" customHeight="1" s="6">
-      <c r="B538" s="5" t="n"/>
+      <c r="C538" s="5" t="n"/>
     </row>
     <row r="539" ht="16" customHeight="1" s="6">
-      <c r="B539" s="5" t="n"/>
+      <c r="C539" s="5" t="n"/>
     </row>
     <row r="540" ht="16" customHeight="1" s="6">
-      <c r="B540" s="5" t="n"/>
+      <c r="C540" s="5" t="n"/>
     </row>
     <row r="541" ht="16" customHeight="1" s="6">
-      <c r="B541" s="5" t="n"/>
+      <c r="C541" s="5" t="n"/>
     </row>
     <row r="542" ht="16" customHeight="1" s="6">
-      <c r="B542" s="7" t="n"/>
+      <c r="C542" s="7" t="n"/>
     </row>
     <row r="543" ht="16" customHeight="1" s="6">
-      <c r="B543" s="7" t="n"/>
+      <c r="C543" s="7" t="n"/>
     </row>
     <row r="544" ht="16" customHeight="1" s="6">
-      <c r="B544" s="7" t="n"/>
+      <c r="C544" s="7" t="n"/>
     </row>
     <row r="545" ht="16" customHeight="1" s="6">
-      <c r="B545" s="7" t="n"/>
+      <c r="C545" s="7" t="n"/>
     </row>
     <row r="546" ht="16" customHeight="1" s="6">
-      <c r="B546" s="7" t="n"/>
+      <c r="C546" s="7" t="n"/>
     </row>
     <row r="547" ht="16" customHeight="1" s="6">
-      <c r="B547" s="7" t="n"/>
+      <c r="C547" s="7" t="n"/>
     </row>
     <row r="548" ht="16" customHeight="1" s="6">
-      <c r="B548" s="7" t="n"/>
+      <c r="C548" s="7" t="n"/>
     </row>
     <row r="549" ht="16" customHeight="1" s="6">
-      <c r="B549" s="7" t="n"/>
+      <c r="C549" s="7" t="n"/>
     </row>
     <row r="550" ht="16" customHeight="1" s="6">
-      <c r="B550" s="5" t="n"/>
+      <c r="C550" s="5" t="n"/>
     </row>
     <row r="551" ht="16" customHeight="1" s="6">
-      <c r="B551" s="7" t="n"/>
+      <c r="C551" s="7" t="n"/>
     </row>
     <row r="552" ht="16" customHeight="1" s="6">
-      <c r="B552" s="7" t="n"/>
+      <c r="C552" s="7" t="n"/>
     </row>
     <row r="553" ht="16" customHeight="1" s="6">
-      <c r="B553" s="7" t="n"/>
+      <c r="C553" s="7" t="n"/>
     </row>
     <row r="554" ht="16" customHeight="1" s="6">
-      <c r="B554" s="7" t="n"/>
+      <c r="C554" s="7" t="n"/>
     </row>
     <row r="555" ht="16" customHeight="1" s="6">
-      <c r="B555" s="5" t="n"/>
+      <c r="C555" s="5" t="n"/>
     </row>
     <row r="556" ht="16" customHeight="1" s="6">
-      <c r="B556" s="5" t="n"/>
+      <c r="C556" s="5" t="n"/>
     </row>
     <row r="557" ht="16" customHeight="1" s="6">
-      <c r="B557" s="5" t="n"/>
+      <c r="C557" s="5" t="n"/>
     </row>
     <row r="558" ht="16" customHeight="1" s="6">
-      <c r="B558" s="5" t="n"/>
+      <c r="C558" s="5" t="n"/>
     </row>
     <row r="559" ht="16" customHeight="1" s="6">
-      <c r="B559" s="5" t="n"/>
+      <c r="C559" s="5" t="n"/>
     </row>
     <row r="560" ht="16" customHeight="1" s="6">
-      <c r="B560" s="7" t="n"/>
+      <c r="C560" s="7" t="n"/>
     </row>
     <row r="561" ht="16" customHeight="1" s="6">
-      <c r="B561" s="7" t="n"/>
+      <c r="C561" s="7" t="n"/>
     </row>
     <row r="562" ht="16" customHeight="1" s="6">
-      <c r="B562" s="7" t="n"/>
+      <c r="C562" s="7" t="n"/>
     </row>
     <row r="563" ht="16" customHeight="1" s="6">
-      <c r="B563" s="7" t="n"/>
+      <c r="C563" s="7" t="n"/>
     </row>
     <row r="564" ht="16" customHeight="1" s="6">
-      <c r="B564" s="7" t="n"/>
+      <c r="C564" s="7" t="n"/>
     </row>
     <row r="565" ht="16" customHeight="1" s="6">
-      <c r="B565" s="7" t="n"/>
+      <c r="C565" s="7" t="n"/>
     </row>
     <row r="566" ht="16" customHeight="1" s="6">
-      <c r="B566" s="7" t="n"/>
+      <c r="C566" s="7" t="n"/>
     </row>
     <row r="567" ht="16" customHeight="1" s="6">
-      <c r="B567" s="7" t="n"/>
+      <c r="C567" s="7" t="n"/>
     </row>
     <row r="568" ht="16" customHeight="1" s="6">
-      <c r="B568" s="5" t="n"/>
+      <c r="C568" s="5" t="n"/>
     </row>
     <row r="569" ht="16" customHeight="1" s="6">
-      <c r="B569" s="5" t="n"/>
+      <c r="C569" s="5" t="n"/>
     </row>
     <row r="570" ht="16" customHeight="1" s="6">
-      <c r="B570" s="7" t="n"/>
+      <c r="C570" s="7" t="n"/>
     </row>
     <row r="571" ht="16" customHeight="1" s="6">
-      <c r="B571" s="7" t="n"/>
+      <c r="C571" s="7" t="n"/>
     </row>
     <row r="572" ht="16" customHeight="1" s="6">
-      <c r="B572" s="5" t="n"/>
+      <c r="C572" s="5" t="n"/>
     </row>
     <row r="573" ht="16" customHeight="1" s="6">
-      <c r="B573" s="7" t="n"/>
+      <c r="C573" s="7" t="n"/>
     </row>
     <row r="574" ht="16" customHeight="1" s="6">
-      <c r="B574" s="7" t="n"/>
+      <c r="C574" s="7" t="n"/>
     </row>
     <row r="575" ht="16" customHeight="1" s="6">
-      <c r="B575" s="5" t="n"/>
+      <c r="C575" s="5" t="n"/>
     </row>
     <row r="576" ht="16" customHeight="1" s="6">
-      <c r="B576" s="5" t="n"/>
+      <c r="C576" s="5" t="n"/>
     </row>
     <row r="577" ht="16" customHeight="1" s="6">
-      <c r="B577" s="5" t="n"/>
+      <c r="C577" s="5" t="n"/>
     </row>
     <row r="578" ht="16" customHeight="1" s="6">
-      <c r="B578" s="5" t="n"/>
+      <c r="C578" s="5" t="n"/>
     </row>
     <row r="579" ht="16" customHeight="1" s="6">
-      <c r="B579" s="5" t="n"/>
+      <c r="C579" s="5" t="n"/>
     </row>
     <row r="580" ht="16" customHeight="1" s="6">
-      <c r="B580" s="7" t="n"/>
+      <c r="C580" s="7" t="n"/>
     </row>
     <row r="581" ht="16" customHeight="1" s="6">
-      <c r="B581" s="7" t="n"/>
+      <c r="C581" s="7" t="n"/>
     </row>
     <row r="582" ht="16" customHeight="1" s="6">
-      <c r="B582" s="5" t="n"/>
+      <c r="C582" s="5" t="n"/>
     </row>
     <row r="583" ht="16" customHeight="1" s="6">
-      <c r="B583" s="5" t="n"/>
+      <c r="C583" s="5" t="n"/>
     </row>
     <row r="584" ht="16" customHeight="1" s="6">
-      <c r="B584" s="5" t="n"/>
+      <c r="C584" s="5" t="n"/>
     </row>
     <row r="585" ht="16" customHeight="1" s="6">
-      <c r="B585" s="5" t="n"/>
+      <c r="C585" s="5" t="n"/>
     </row>
     <row r="586" ht="16" customHeight="1" s="6">
-      <c r="B586" s="5" t="n"/>
+      <c r="C586" s="5" t="n"/>
     </row>
     <row r="587" ht="16" customHeight="1" s="6">
-      <c r="B587" s="5" t="n"/>
+      <c r="C587" s="5" t="n"/>
     </row>
     <row r="588" ht="16" customHeight="1" s="6">
-      <c r="B588" s="5" t="n"/>
+      <c r="C588" s="5" t="n"/>
     </row>
     <row r="589" ht="16" customHeight="1" s="6">
-      <c r="B589" s="7" t="n"/>
+      <c r="C589" s="7" t="n"/>
     </row>
     <row r="590" ht="16" customHeight="1" s="6">
-      <c r="B590" s="7" t="n"/>
+      <c r="C590" s="7" t="n"/>
     </row>
     <row r="591" ht="16" customHeight="1" s="6">
-      <c r="B591" s="5" t="n"/>
+      <c r="C591" s="5" t="n"/>
     </row>
     <row r="592" ht="16" customHeight="1" s="6">
-      <c r="B592" s="5" t="n"/>
+      <c r="C592" s="5" t="n"/>
     </row>
     <row r="593" ht="16" customHeight="1" s="6">
-      <c r="B593" s="5" t="n"/>
+      <c r="C593" s="5" t="n"/>
     </row>
     <row r="594" ht="16" customHeight="1" s="6">
-      <c r="B594" s="7" t="n"/>
+      <c r="C594" s="7" t="n"/>
     </row>
     <row r="595" ht="16" customHeight="1" s="6">
-      <c r="B595" s="7" t="n"/>
+      <c r="C595" s="7" t="n"/>
     </row>
     <row r="596" ht="16" customHeight="1" s="6">
-      <c r="B596" s="5" t="n"/>
+      <c r="C596" s="5" t="n"/>
     </row>
     <row r="597" ht="16" customHeight="1" s="6">
-      <c r="B597" s="5" t="n"/>
+      <c r="C597" s="5" t="n"/>
     </row>
     <row r="598" ht="16" customHeight="1" s="6">
-      <c r="B598" s="5" t="n"/>
+      <c r="C598" s="5" t="n"/>
     </row>
     <row r="599" ht="16" customHeight="1" s="6">
-      <c r="B599" s="5" t="n"/>
+      <c r="C599" s="5" t="n"/>
     </row>
     <row r="600" ht="16" customHeight="1" s="6">
-      <c r="B600" s="7" t="n"/>
+      <c r="C600" s="7" t="n"/>
     </row>
     <row r="601" ht="16" customHeight="1" s="6">
-      <c r="B601" s="7" t="n"/>
+      <c r="C601" s="7" t="n"/>
     </row>
     <row r="602" ht="16" customHeight="1" s="6">
-      <c r="B602" s="5" t="n"/>
+      <c r="C602" s="5" t="n"/>
     </row>
     <row r="603" ht="16" customHeight="1" s="6">
-      <c r="B603" s="5" t="n"/>
+      <c r="C603" s="5" t="n"/>
     </row>
     <row r="604" ht="16" customHeight="1" s="6">
-      <c r="B604" s="7" t="n"/>
+      <c r="C604" s="7" t="n"/>
     </row>
     <row r="605" ht="16" customHeight="1" s="6">
-      <c r="B605" s="7" t="n"/>
+      <c r="C605" s="7" t="n"/>
     </row>
     <row r="606" ht="16" customHeight="1" s="6">
-      <c r="B606" s="7" t="n"/>
+      <c r="C606" s="7" t="n"/>
     </row>
     <row r="607" ht="16" customHeight="1" s="6">
-      <c r="B607" s="7" t="n"/>
+      <c r="C607" s="7" t="n"/>
     </row>
     <row r="608" ht="16" customHeight="1" s="6">
-      <c r="B608" s="7" t="n"/>
+      <c r="C608" s="7" t="n"/>
     </row>
     <row r="609" ht="16" customHeight="1" s="6">
-      <c r="B609" s="7" t="n"/>
+      <c r="C609" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
